--- a/design/设计.xlsx
+++ b/design/设计.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12225"/>
+    <workbookView windowWidth="14400" windowHeight="11895" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="指令表" sheetId="1" r:id="rId1"/>
-    <sheet name="ALUOP" sheetId="2" r:id="rId2"/>
+    <sheet name="真值表" sheetId="3" r:id="rId2"/>
+    <sheet name="信号的意义" sheetId="4" r:id="rId3"/>
+    <sheet name="ALUctr" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="114">
   <si>
     <t>编号</t>
   </si>
@@ -87,6 +89,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <charset val="134"/>
+      </rPr>
       <t>rt=rs</t>
     </r>
     <r>
@@ -116,6 +124,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <charset val="134"/>
+      </rPr>
       <t>rd=rs</t>
     </r>
     <r>
@@ -142,6 +156,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <charset val="134"/>
+      </rPr>
       <t>rt=rs</t>
     </r>
     <r>
@@ -171,6 +191,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Fira Code"/>
+        <charset val="134"/>
+      </rPr>
       <t>rd=rs</t>
     </r>
     <r>
@@ -280,7 +306,112 @@
     <t>halt,PC=PC</t>
   </si>
   <si>
-    <t>ALUOP</t>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>RegDst</t>
+  </si>
+  <si>
+    <t>ALUSrc</t>
+  </si>
+  <si>
+    <t>MemToReg</t>
+  </si>
+  <si>
+    <t>RegWrt</t>
+  </si>
+  <si>
+    <t>MemWrt</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Jump</t>
+  </si>
+  <si>
+    <t>Extop</t>
+  </si>
+  <si>
+    <t>ALUop</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>add(000)</t>
+  </si>
+  <si>
+    <t>sub(001)</t>
+  </si>
+  <si>
+    <t>and(100)</t>
+  </si>
+  <si>
+    <t>or(011)</t>
+  </si>
+  <si>
+    <t>1*</t>
+  </si>
+  <si>
+    <t>sll(010)</t>
+  </si>
+  <si>
+    <t>slt</t>
+  </si>
+  <si>
+    <t>信号</t>
+  </si>
+  <si>
+    <t>注解</t>
+  </si>
+  <si>
+    <t>为1时的情况</t>
+  </si>
+  <si>
+    <t>寄存器写入地址使用第二个值还是第三个值</t>
+  </si>
+  <si>
+    <t>使用第三个值</t>
+  </si>
+  <si>
+    <t>ALU第二个操作数使用立即数输入</t>
+  </si>
+  <si>
+    <t>使用立即数输入</t>
+  </si>
+  <si>
+    <t>MenToReg</t>
+  </si>
+  <si>
+    <t>能否从存储写到寄存器</t>
+  </si>
+  <si>
+    <t>写</t>
+  </si>
+  <si>
+    <t>能否写寄存器</t>
+  </si>
+  <si>
+    <t>能否写存储</t>
+  </si>
+  <si>
+    <t>是否分支</t>
+  </si>
+  <si>
+    <t>是否强制跳转</t>
+  </si>
+  <si>
+    <t>是否拓展</t>
+  </si>
+  <si>
+    <t>拓展</t>
+  </si>
+  <si>
+    <t>ALUctr</t>
+  </si>
+  <si>
+    <t>ALU操作</t>
   </si>
   <si>
     <t>描述</t>
@@ -301,7 +432,7 @@
     <t>Y=B&lt;&lt;A</t>
   </si>
   <si>
-    <t>左移</t>
+    <t>左移(注意shaft的位置)</t>
   </si>
   <si>
     <t>Y=A∨B</t>
@@ -342,9 +473,9 @@
     <numFmt numFmtId="176" formatCode="000000"/>
     <numFmt numFmtId="177" formatCode="000"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -361,6 +492,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Fira Code"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="13"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -368,20 +505,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Fira Code"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,10 +520,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -418,18 +549,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -438,14 +562,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -465,15 +581,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,23 +606,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,6 +625,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -523,6 +654,174 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -532,181 +831,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,6 +854,49 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thick">
         <color auto="1"/>
       </right>
@@ -751,21 +925,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thick">
         <color auto="1"/>
       </right>
@@ -827,19 +986,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thick">
         <color auto="1"/>
       </right>
@@ -853,21 +999,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -946,10 +1077,66 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -969,218 +1156,186 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1191,88 +1346,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1596,72 +1724,72 @@
   <sheetPr/>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="8.88888888888889" style="4"/>
+    <col min="2" max="2" width="8.88888888888889" style="12"/>
     <col min="3" max="3" width="18.4444444444444" customWidth="1"/>
     <col min="9" max="9" width="9.88888888888889" customWidth="1"/>
     <col min="10" max="10" width="44.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="18.75" spans="1:11">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+    <row r="1" s="10" customFormat="1" ht="18.75" spans="1:11">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="7" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="19.5" spans="1:11">
-      <c r="A2" s="8" t="s">
+    <row r="2" s="11" customFormat="1" ht="19.5" spans="1:11">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="17">
         <v>6</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="17">
         <v>5</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="17">
         <v>5</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="17">
         <v>5</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="17">
         <v>5</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="17">
         <v>6</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="27" t="s">
@@ -1669,464 +1797,464 @@
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:11">
-      <c r="A3" s="11">
-        <v>0</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="18">
+        <v>0</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="14">
-        <v>0</v>
-      </c>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="22" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="25" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="15">
-        <v>1</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17" t="s">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14">
-        <v>0</v>
-      </c>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="31"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="15">
+      <c r="A5" s="20">
         <v>2</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="9">
         <v>1001</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="30" t="s">
+      <c r="H5" s="24"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="31"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="15">
+      <c r="A6" s="20">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="9">
         <v>1100</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="30" t="s">
+      <c r="H6" s="24"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="31"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="15">
+      <c r="A7" s="20">
         <v>4</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="18">
-        <v>0</v>
-      </c>
-      <c r="E7" s="21" t="s">
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="31"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="15">
+      <c r="A8" s="20">
         <v>5</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="9">
         <v>1101</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="30" t="s">
+      <c r="H8" s="24"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="31"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="15">
+      <c r="A9" s="20">
         <v>6</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="18">
-        <v>0</v>
-      </c>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="31"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="15">
+      <c r="A10" s="20">
         <v>7</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="18">
-        <v>0</v>
-      </c>
-      <c r="E10" s="24" t="s">
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="30"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="20">
+        <v>8</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1010</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="F11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="31"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="15">
-        <v>8</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="18">
-        <v>1010</v>
-      </c>
-      <c r="E11" s="21" t="s">
+      <c r="G11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="30"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="20">
         <v>9</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="B12" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="9">
+        <v>101011</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="15">
+      <c r="G12" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="30"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="20">
+        <v>10</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="9">
+        <v>101011</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="18">
-        <v>101011</v>
-      </c>
-      <c r="E12" s="21" t="s">
+      <c r="F13" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="24"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="30"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="20">
+        <v>11</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="9">
+        <v>100</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F14" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G14" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="31"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="15">
+      <c r="H14" s="24"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="30"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="20">
+        <v>12</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="9">
+        <v>101</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="18">
-        <v>101011</v>
-      </c>
-      <c r="E13" s="21" t="s">
+      <c r="G15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="24"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="30"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="20">
+        <v>13</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F16" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="30"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="20">
+        <v>14</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="9">
         <v>10</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="15">
-        <v>11</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="18">
-        <v>100</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="31"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="15">
-        <v>12</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="18">
-        <v>101</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" s="31"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="15">
-        <v>13</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="18">
-        <v>1</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="31"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="15">
-        <v>14</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="18">
-        <v>10</v>
-      </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="21" t="s">
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="31"/>
+      <c r="K17" s="30"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="15">
+      <c r="A18" s="20">
         <v>15</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="9">
         <v>111111</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="21" t="s">
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="K18" s="31"/>
+      <c r="K18" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2155,115 +2283,864 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="18.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="12.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="9.44444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" spans="1:11">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1100</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1101</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1010</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="9">
+        <v>101011</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="9">
+        <v>101011</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="9">
+        <v>100</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="9">
+        <v>101</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="9">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="9">
+        <v>111111</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="34.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="15.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="8.88888888888889" style="1"/>
     <col min="2" max="2" width="13.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="17.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>62</v>
+      <c r="C1" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" t="s">
-        <v>64</v>
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
+      <c r="B4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
+      <c r="B5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>100</v>
       </c>
-      <c r="B6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" t="s">
-        <v>72</v>
+      <c r="B6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>101</v>
       </c>
-      <c r="B7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" t="s">
-        <v>74</v>
+      <c r="B7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>110</v>
       </c>
-      <c r="B8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" t="s">
-        <v>76</v>
+      <c r="B8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>111</v>
       </c>
-      <c r="B9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" t="s">
-        <v>78</v>
+      <c r="B9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/design/设计.xlsx
+++ b/design/设计.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="11895" activeTab="3"/>
+    <workbookView windowWidth="14400" windowHeight="11895" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="指令表" sheetId="1" r:id="rId1"/>
     <sheet name="真值表" sheetId="3" r:id="rId2"/>
     <sheet name="信号的意义" sheetId="4" r:id="rId3"/>
     <sheet name="ALUctr" sheetId="2" r:id="rId4"/>
+    <sheet name="PCsrc" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="141">
   <si>
     <t>编号</t>
   </si>
@@ -309,39 +310,45 @@
     <t>OP</t>
   </si>
   <si>
-    <t>RegDst</t>
-  </si>
-  <si>
-    <t>ALUSrc</t>
-  </si>
-  <si>
-    <t>MemToReg</t>
-  </si>
-  <si>
-    <t>RegWrt</t>
-  </si>
-  <si>
-    <t>MemWrt</t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>Jump</t>
-  </si>
-  <si>
-    <t>Extop</t>
-  </si>
-  <si>
-    <t>ALUop</t>
+    <t>regWrt</t>
+  </si>
+  <si>
+    <t>ALUsrcA</t>
+  </si>
+  <si>
+    <t>ALUsrcB</t>
+  </si>
+  <si>
+    <t>ALUctr[2:0]</t>
+  </si>
+  <si>
+    <t>extOp</t>
+  </si>
+  <si>
+    <t>memWrt</t>
+  </si>
+  <si>
+    <t>memRd</t>
+  </si>
+  <si>
+    <t>PCwrt</t>
+  </si>
+  <si>
+    <t>PCsrc[1:0]</t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>add(000)</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>add(000)</t>
-  </si>
-  <si>
     <t>sub(001)</t>
   </si>
   <si>
@@ -351,13 +358,13 @@
     <t>or(011)</t>
   </si>
   <si>
-    <t>1*</t>
-  </si>
-  <si>
     <t>sll(010)</t>
   </si>
   <si>
-    <t>slt</t>
+    <t>slt(110)</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
   <si>
     <t>信号</t>
@@ -366,54 +373,105 @@
     <t>注解</t>
   </si>
   <si>
-    <t>为1时的情况</t>
-  </si>
-  <si>
-    <t>寄存器写入地址使用第二个值还是第三个值</t>
-  </si>
-  <si>
-    <t>使用第三个值</t>
-  </si>
-  <si>
-    <t>ALU第二个操作数使用立即数输入</t>
-  </si>
-  <si>
-    <t>使用立即数输入</t>
-  </si>
-  <si>
-    <t>MenToReg</t>
-  </si>
-  <si>
-    <t>能否从存储写到寄存器</t>
-  </si>
-  <si>
-    <t>写</t>
-  </si>
-  <si>
-    <t>能否写寄存器</t>
-  </si>
-  <si>
-    <t>能否写存储</t>
-  </si>
-  <si>
-    <t>是否分支</t>
-  </si>
-  <si>
-    <t>是否强制跳转</t>
-  </si>
-  <si>
-    <t>是否拓展</t>
-  </si>
-  <si>
-    <t>拓展</t>
+    <t>取1</t>
+  </si>
+  <si>
+    <t>取0</t>
+  </si>
+  <si>
+    <t>regDst[4:0]</t>
+  </si>
+  <si>
+    <t>寄存器地址</t>
+  </si>
+  <si>
+    <t>寄存器写保护</t>
+  </si>
+  <si>
+    <t>可以写</t>
+  </si>
+  <si>
+    <t>不能写</t>
+  </si>
+  <si>
+    <t>ALU数据入口1</t>
+  </si>
+  <si>
+    <t>取寄存器组输出（rs）</t>
+  </si>
+  <si>
+    <t>拓展后移位数（sa）</t>
+  </si>
+  <si>
+    <t>ALU数据入口2</t>
+  </si>
+  <si>
+    <t>取寄存器组输出（rt）</t>
+  </si>
+  <si>
+    <t>拓展后立即数（imme）</t>
+  </si>
+  <si>
+    <t>ALU控制信号</t>
+  </si>
+  <si>
+    <t>拓展信号</t>
+  </si>
+  <si>
+    <t>符号拓展</t>
+  </si>
+  <si>
+    <t>0拓展</t>
+  </si>
+  <si>
+    <t>memSrc</t>
+  </si>
+  <si>
+    <t>内存地址</t>
+  </si>
+  <si>
+    <t>内存写保护</t>
+  </si>
+  <si>
+    <t>无操作</t>
+  </si>
+  <si>
+    <t>内存读保护</t>
+  </si>
+  <si>
+    <t>可以读</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>重置信号</t>
+  </si>
+  <si>
+    <t>重置PC，寄存器和存储器</t>
+  </si>
+  <si>
+    <t>PC写保护</t>
+  </si>
+  <si>
+    <t>可以写PC</t>
+  </si>
+  <si>
+    <t>不能写PC（halt）</t>
+  </si>
+  <si>
+    <t>PC源选择</t>
+  </si>
+  <si>
+    <t>无条件跳转</t>
+  </si>
+  <si>
+    <t>满足条件后分支</t>
   </si>
   <si>
     <t>ALUctr</t>
   </si>
   <si>
-    <t>ALU操作</t>
-  </si>
-  <si>
     <t>描述</t>
   </si>
   <si>
@@ -463,21 +521,46 @@
   </si>
   <si>
     <t>异或</t>
+  </si>
+  <si>
+    <t>PCsrc</t>
+  </si>
+  <si>
+    <t>源</t>
+  </si>
+  <si>
+    <t>涉及指令</t>
+  </si>
+  <si>
+    <t>PC+4</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>PC+4+(sign)imme</t>
+  </si>
+  <si>
+    <t>{PC+4[31:28],addr[27:2],2'b00}</t>
+  </si>
+  <si>
+    <t>PCsrc可由jump和branch拼接而来</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="000000"/>
-    <numFmt numFmtId="177" formatCode="000"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="000"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="00"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,9 +569,23 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="文泉驿等宽微米黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -511,22 +608,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -541,9 +622,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,33 +663,17 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -606,14 +694,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,7 +724,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,6 +734,14 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -657,31 +754,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,7 +766,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,19 +784,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,13 +796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,7 +814,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,7 +856,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,19 +880,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,48 +928,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -884,10 +981,53 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1077,6 +1217,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1088,30 +1237,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1156,160 +1281,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1319,88 +1468,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1730,531 +1891,531 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="8.88888888888889" style="12"/>
+    <col min="2" max="2" width="8.88888888888889" style="18"/>
     <col min="3" max="3" width="18.4444444444444" customWidth="1"/>
     <col min="9" max="9" width="9.88888888888889" customWidth="1"/>
     <col min="10" max="10" width="44.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="18.75" spans="1:11">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" s="16" customFormat="1" ht="18.75" spans="1:11">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="11" customFormat="1" ht="19.5" spans="1:11">
-      <c r="A2" s="15" t="s">
+    <row r="2" s="17" customFormat="1" ht="19.5" spans="1:11">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="23">
         <v>6</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="23">
         <v>5</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="23">
         <v>5</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="23">
         <v>5</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="23">
         <v>5</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="23">
         <v>6</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:11">
-      <c r="A3" s="18">
-        <v>0</v>
-      </c>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="24">
+        <v>0</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="22" t="s">
+      <c r="D3" s="26">
+        <v>0</v>
+      </c>
+      <c r="E3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="29"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="20">
-        <v>1</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="27">
+        <v>1</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="26">
+        <v>0</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="30"/>
+      <c r="K4" s="37"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="20">
+      <c r="A5" s="27">
         <v>2</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="29">
         <v>1001</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="22" t="s">
+      <c r="H5" s="32"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="30"/>
+      <c r="K5" s="37"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="20">
+      <c r="A6" s="27">
         <v>3</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="29">
         <v>1100</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="22" t="s">
+      <c r="H6" s="32"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="30"/>
+      <c r="K6" s="37"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="20">
+      <c r="A7" s="27">
         <v>4</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="22" t="s">
+      <c r="D7" s="29">
+        <v>0</v>
+      </c>
+      <c r="E7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="30"/>
+      <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="20">
+      <c r="A8" s="27">
         <v>5</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="29">
         <v>1101</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="22" t="s">
+      <c r="H8" s="32"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="30"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="20">
+      <c r="A9" s="27">
         <v>6</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="22" t="s">
+      <c r="D9" s="29">
+        <v>0</v>
+      </c>
+      <c r="E9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="30"/>
+      <c r="K9" s="37"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="20">
+      <c r="A10" s="27">
         <v>7</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="29">
+        <v>0</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="30"/>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="20">
+      <c r="A11" s="27">
         <v>8</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="29">
         <v>1010</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="22" t="s">
+      <c r="H11" s="32"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="30"/>
+      <c r="K11" s="37"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="20">
+      <c r="A12" s="27">
         <v>9</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="29">
         <v>101011</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="22" t="s">
+      <c r="H12" s="32"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="30"/>
+      <c r="K12" s="37"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="20">
+      <c r="A13" s="27">
         <v>10</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="29">
         <v>101011</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="22" t="s">
+      <c r="H13" s="32"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="30"/>
+      <c r="K13" s="37"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="20">
+      <c r="A14" s="27">
         <v>11</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="29">
         <v>100</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="22" t="s">
+      <c r="H14" s="32"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="30"/>
+      <c r="K14" s="37"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="20">
+      <c r="A15" s="27">
         <v>12</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="29">
         <v>101</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="22" t="s">
+      <c r="H15" s="32"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="30"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="20">
+      <c r="A16" s="27">
         <v>13</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="8" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="9">
-        <v>1</v>
-      </c>
-      <c r="E16" s="22" t="s">
+      <c r="D16" s="29">
+        <v>1</v>
+      </c>
+      <c r="E16" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="22" t="s">
+      <c r="H16" s="32"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="30"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="20">
+      <c r="A17" s="27">
         <v>14</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="29">
         <v>10</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="22" t="s">
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="30"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="20">
+      <c r="A18" s="27">
         <v>15</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="29">
         <v>111111</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="22" t="s">
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="K18" s="30"/>
+      <c r="K18" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2283,612 +2444,718 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="12.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="9.44444444444444" customWidth="1"/>
+    <col min="3" max="3" width="12.4148148148148" customWidth="1"/>
+    <col min="5" max="5" width="10.0592592592593" customWidth="1"/>
+    <col min="6" max="6" width="12.0222222222222" customWidth="1"/>
+    <col min="7" max="7" width="9.14074074074074" customWidth="1"/>
+    <col min="11" max="11" width="12.0222222222222" customWidth="1"/>
+    <col min="12" max="12" width="10.8444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:11">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="18.75" spans="1:13">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="5" t="s">
+      <c r="L1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" spans="1:13">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="11">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
+        <v>1</v>
+      </c>
+      <c r="K2" s="15">
+        <v>0</v>
+      </c>
+      <c r="L2" s="12">
+        <v>0</v>
+      </c>
+      <c r="M2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>1</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="14">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1001</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="8" t="s">
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="14">
         <v>1100</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>1</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>1</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" s="7" t="s">
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>1</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1101</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>1</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="14">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="9">
-        <v>1101</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>1</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>1</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="14">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>1</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="14">
+        <v>1010</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>1</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="14">
+        <v>101011</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>1</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="14">
+        <v>101011</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="14">
+        <v>100</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="9">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>1</v>
+      </c>
+      <c r="K13" s="15">
+        <v>1</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="14">
+        <v>101</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="9">
-        <v>1010</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
-        <v>1</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="9">
-        <v>101011</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="9">
-        <v>101011</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="9">
-        <v>100</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="9">
-        <v>101</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="8" t="s">
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>1</v>
+      </c>
+      <c r="K14" s="15">
+        <v>1</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0</v>
+      </c>
+      <c r="M14" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="9">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="8" t="s">
+      <c r="B15" s="14">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="12">
+        <v>1</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>1</v>
+      </c>
+      <c r="K15" s="15">
+        <v>1</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0</v>
+      </c>
+      <c r="M15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="14">
         <v>10</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="8" t="s">
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <v>1</v>
+      </c>
+      <c r="K16" s="15">
+        <v>10</v>
+      </c>
+      <c r="L16" s="12">
+        <v>1</v>
+      </c>
+      <c r="M16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="14">
         <v>111111</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>6</v>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="15">
+        <v>0</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2900,126 +3167,228 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="34.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="15.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="16.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="17.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="17.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="18.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:3">
-      <c r="A1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" ht="18.75" spans="1:4">
+      <c r="A1" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" ht="17.25" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" spans="1:4">
+      <c r="A2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D9" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>6</v>
+      <c r="C15" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3033,114 +3402,194 @@
   <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="8.88888888888889" style="4"/>
     <col min="2" max="2" width="13.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="17.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>97</v>
+      <c r="C1" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5">
+        <v>100</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5">
+        <v>101</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5">
+        <v>110</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5">
+        <v>111</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="26.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>99</v>
+      <c r="B2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>101</v>
+      <c r="B3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>103</v>
+      <c r="B4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
-        <v>100</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>101</v>
-      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
       <c r="B7" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
-        <v>110</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>111</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/design/设计.xlsx
+++ b/design/设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="11895" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="14400" windowHeight="12225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="指令表" sheetId="1" r:id="rId1"/>
@@ -274,13 +274,13 @@
     <t>bne rs, rt, offset</t>
   </si>
   <si>
-    <t>if(rs!=rt) PC=PC+4+(sig_ext)offset&lt;&lt;3</t>
+    <t>if(rs!=rt) PC=PC+4+(sig_ext)offset&lt;&lt;2</t>
   </si>
   <si>
     <t>bltz rs, offset</t>
   </si>
   <si>
-    <t>if(rs&lt;0) PC=PC+4+(sig_ext)offset&lt;&lt;4</t>
+    <t>if(rs&lt;0) PC=PC+4+(sig_ext)offset&lt;&lt;2</t>
   </si>
   <si>
     <t>跳转</t>
@@ -553,12 +553,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="000000"/>
+    <numFmt numFmtId="177" formatCode="00"/>
+    <numFmt numFmtId="178" formatCode="000"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="000"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="00"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -602,13 +602,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -623,23 +616,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -653,11 +630,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -669,9 +652,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,15 +662,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,6 +691,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -717,31 +716,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -754,7 +754,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,13 +796,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,55 +910,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,97 +934,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,66 +1202,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1282,6 +1223,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1296,176 +1267,202 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1492,7 +1489,7 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1886,536 +1883,536 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="8.88888888888889" style="18"/>
+    <col min="2" max="2" width="8.88888888888889" style="17"/>
     <col min="3" max="3" width="18.4444444444444" customWidth="1"/>
     <col min="9" max="9" width="9.88888888888889" customWidth="1"/>
     <col min="10" max="10" width="44.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" ht="18.75" spans="1:11">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+    <row r="1" s="15" customFormat="1" ht="18.75" spans="1:11">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="1" ht="19.5" spans="1:11">
-      <c r="A2" s="21" t="s">
+    <row r="2" s="16" customFormat="1" ht="19.5" spans="1:11">
+      <c r="A2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="22">
         <v>6</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="22">
         <v>5</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="22">
         <v>5</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="22">
         <v>5</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="22">
         <v>5</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="22">
         <v>6</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:11">
-      <c r="A3" s="24">
-        <v>0</v>
-      </c>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="23">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="26">
-        <v>0</v>
-      </c>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="25">
+        <v>0</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="36"/>
+      <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="27">
-        <v>1</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="13" t="s">
+      <c r="A4" s="26">
+        <v>1</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="26">
-        <v>0</v>
-      </c>
-      <c r="E4" s="30" t="s">
+      <c r="D4" s="25">
+        <v>0</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="37"/>
+      <c r="K4" s="36"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>2</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="28">
         <v>1001</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="30" t="s">
+      <c r="H5" s="31"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="37"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="27">
+      <c r="A6" s="26">
         <v>3</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="28">
         <v>1100</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="30" t="s">
+      <c r="H6" s="31"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="37"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="27">
+      <c r="A7" s="26">
         <v>4</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="29">
-        <v>0</v>
-      </c>
-      <c r="E7" s="30" t="s">
+      <c r="D7" s="28">
+        <v>0</v>
+      </c>
+      <c r="E7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="37"/>
+      <c r="K7" s="36"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="27">
+      <c r="A8" s="26">
         <v>5</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="28">
         <v>1101</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="30" t="s">
+      <c r="H8" s="31"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="37"/>
+      <c r="K8" s="36"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="27">
+      <c r="A9" s="26">
         <v>6</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="29">
-        <v>0</v>
-      </c>
-      <c r="E9" s="30" t="s">
+      <c r="D9" s="28">
+        <v>0</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="37"/>
+      <c r="K9" s="36"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="27">
+      <c r="A10" s="26">
         <v>7</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="29">
-        <v>0</v>
-      </c>
-      <c r="E10" s="33" t="s">
+      <c r="D10" s="28">
+        <v>0</v>
+      </c>
+      <c r="E10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="37"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="27">
+      <c r="A11" s="26">
         <v>8</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="28">
         <v>1010</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="30" t="s">
+      <c r="H11" s="31"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="37"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="27">
+      <c r="A12" s="26">
         <v>9</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="28">
         <v>101011</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="30" t="s">
+      <c r="H12" s="31"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="37"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="27">
+      <c r="A13" s="26">
         <v>10</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <v>101011</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="30" t="s">
+      <c r="H13" s="31"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="37"/>
+      <c r="K13" s="36"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="27">
+      <c r="A14" s="26">
         <v>11</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="28">
         <v>100</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="30" t="s">
+      <c r="H14" s="31"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="37"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="27">
+      <c r="A15" s="26">
         <v>12</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <v>101</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="32"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="30" t="s">
+      <c r="H15" s="31"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="37"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="27">
+      <c r="A16" s="26">
         <v>13</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="29">
-        <v>1</v>
-      </c>
-      <c r="E16" s="30" t="s">
+      <c r="D16" s="28">
+        <v>1</v>
+      </c>
+      <c r="E16" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="30" t="s">
+      <c r="H16" s="31"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="37"/>
+      <c r="K16" s="36"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="27">
+      <c r="A17" s="26">
         <v>14</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="28">
         <v>10</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="30" t="s">
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="37"/>
+      <c r="K17" s="36"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="27">
+      <c r="A18" s="26">
         <v>15</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="28">
         <v>111111</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="30" t="s">
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="K18" s="37"/>
+      <c r="K18" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2447,7 +2444,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
@@ -2462,699 +2459,699 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:13">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:13">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="11">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12">
-        <v>1</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="B2" s="10">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12">
-        <v>0</v>
-      </c>
-      <c r="J2" s="12">
-        <v>1</v>
-      </c>
-      <c r="K2" s="15">
-        <v>0</v>
-      </c>
-      <c r="L2" s="12">
-        <v>0</v>
-      </c>
-      <c r="M2" s="12">
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
+        <v>1</v>
+      </c>
+      <c r="K2" s="14">
+        <v>0</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0</v>
+      </c>
+      <c r="M2" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
-        <v>1</v>
-      </c>
-      <c r="K3" s="15">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12">
-        <v>0</v>
-      </c>
-      <c r="M3" s="12">
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1</v>
+      </c>
+      <c r="K3" s="14">
+        <v>0</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>1001</v>
       </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
-        <v>1</v>
-      </c>
-      <c r="K4" s="15">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0</v>
-      </c>
-      <c r="M4" s="12">
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <v>1</v>
+      </c>
+      <c r="K4" s="14">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>1100</v>
       </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="12">
-        <v>1</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
-        <v>1</v>
-      </c>
-      <c r="K5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0</v>
-      </c>
-      <c r="M5" s="12">
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <v>1</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="14">
-        <v>0</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="B6" s="13">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
-        <v>1</v>
-      </c>
-      <c r="K6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="12">
-        <v>0</v>
-      </c>
-      <c r="M6" s="12">
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>1101</v>
       </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12">
-        <v>1</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0</v>
-      </c>
-      <c r="L7" s="12">
-        <v>0</v>
-      </c>
-      <c r="M7" s="12">
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>1</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="14">
-        <v>0</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="E8" s="12">
-        <v>1</v>
-      </c>
-      <c r="F8" s="12" t="s">
+      <c r="B8" s="13">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12">
-        <v>1</v>
-      </c>
-      <c r="K8" s="15">
-        <v>0</v>
-      </c>
-      <c r="L8" s="12">
-        <v>0</v>
-      </c>
-      <c r="M8" s="12">
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>1</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="14">
-        <v>0</v>
-      </c>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="B9" s="13">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12">
-        <v>1</v>
-      </c>
-      <c r="K9" s="15">
-        <v>0</v>
-      </c>
-      <c r="L9" s="12">
-        <v>0</v>
-      </c>
-      <c r="M9" s="12">
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <v>1</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>1010</v>
       </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="12">
-        <v>1</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
-      <c r="J10" s="12">
-        <v>1</v>
-      </c>
-      <c r="K10" s="15">
-        <v>0</v>
-      </c>
-      <c r="L10" s="12">
-        <v>0</v>
-      </c>
-      <c r="M10" s="12">
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>1</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>101011</v>
       </c>
-      <c r="C11" s="12">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
-        <v>1</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="12">
-        <v>1</v>
-      </c>
-      <c r="H11" s="12">
-        <v>1</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
-        <v>1</v>
-      </c>
-      <c r="K11" s="15">
-        <v>0</v>
-      </c>
-      <c r="L11" s="12">
-        <v>0</v>
-      </c>
-      <c r="M11" s="12">
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>101011</v>
       </c>
-      <c r="C12" s="12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="12" t="s">
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="12">
-        <v>1</v>
-      </c>
-      <c r="K12" s="15">
-        <v>0</v>
-      </c>
-      <c r="L12" s="12">
-        <v>0</v>
-      </c>
-      <c r="M12" s="12">
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11">
+        <v>1</v>
+      </c>
+      <c r="K12" s="14">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>100</v>
       </c>
-      <c r="C13" s="12">
-        <v>0</v>
-      </c>
-      <c r="D13" s="12">
-        <v>1</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0</v>
-      </c>
-      <c r="F13" s="12" t="s">
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="12">
-        <v>1</v>
-      </c>
-      <c r="H13" s="12">
-        <v>0</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0</v>
-      </c>
-      <c r="J13" s="12">
-        <v>1</v>
-      </c>
-      <c r="K13" s="15">
-        <v>1</v>
-      </c>
-      <c r="L13" s="12">
-        <v>0</v>
-      </c>
-      <c r="M13" s="12">
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>1</v>
+      </c>
+      <c r="K13" s="14">
+        <v>1</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>101</v>
       </c>
-      <c r="C14" s="12">
-        <v>0</v>
-      </c>
-      <c r="D14" s="12">
-        <v>1</v>
-      </c>
-      <c r="E14" s="12">
-        <v>0</v>
-      </c>
-      <c r="F14" s="12" t="s">
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="12">
-        <v>1</v>
-      </c>
-      <c r="H14" s="12">
-        <v>0</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0</v>
-      </c>
-      <c r="J14" s="12">
-        <v>1</v>
-      </c>
-      <c r="K14" s="15">
-        <v>1</v>
-      </c>
-      <c r="L14" s="12">
-        <v>0</v>
-      </c>
-      <c r="M14" s="12">
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <v>1</v>
+      </c>
+      <c r="K14" s="14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="14">
-        <v>1</v>
-      </c>
-      <c r="C15" s="12">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12">
-        <v>1</v>
-      </c>
-      <c r="E15" s="12">
-        <v>0</v>
-      </c>
-      <c r="F15" s="12" t="s">
+      <c r="B15" s="13">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="12">
-        <v>1</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0</v>
-      </c>
-      <c r="I15" s="12">
-        <v>0</v>
-      </c>
-      <c r="J15" s="12">
-        <v>1</v>
-      </c>
-      <c r="K15" s="15">
-        <v>1</v>
-      </c>
-      <c r="L15" s="12">
-        <v>0</v>
-      </c>
-      <c r="M15" s="12">
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <v>1</v>
+      </c>
+      <c r="K15" s="14">
+        <v>1</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>10</v>
       </c>
-      <c r="C16" s="12">
-        <v>0</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="C16" s="11">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H16" s="12">
-        <v>0</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0</v>
-      </c>
-      <c r="J16" s="12">
-        <v>1</v>
-      </c>
-      <c r="K16" s="15">
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
+        <v>1</v>
+      </c>
+      <c r="K16" s="14">
         <v>10</v>
       </c>
-      <c r="L16" s="12">
-        <v>1</v>
-      </c>
-      <c r="M16" s="12">
+      <c r="L16" s="11">
+        <v>1</v>
+      </c>
+      <c r="M16" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>111111</v>
       </c>
-      <c r="C17" s="12">
-        <v>0</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="C17" s="11">
+        <v>0</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="12">
-        <v>0</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0</v>
-      </c>
-      <c r="J17" s="12">
-        <v>0</v>
-      </c>
-      <c r="K17" s="15">
-        <v>0</v>
-      </c>
-      <c r="L17" s="12">
-        <v>0</v>
-      </c>
-      <c r="M17" s="12">
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="14">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
         <v>0</v>
       </c>
     </row>
@@ -3182,212 +3179,212 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="1" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3417,10 +3414,10 @@
       <c r="A1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3428,10 +3425,10 @@
       <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3439,10 +3436,10 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3450,10 +3447,10 @@
       <c r="A4" s="5">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3461,10 +3458,10 @@
       <c r="A5" s="5">
         <v>11</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3472,10 +3469,10 @@
       <c r="A6" s="5">
         <v>100</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="1" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3483,10 +3480,10 @@
       <c r="A7" s="5">
         <v>101</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3494,10 +3491,10 @@
       <c r="A8" s="5">
         <v>110</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="1" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3505,10 +3502,10 @@
       <c r="A9" s="5">
         <v>111</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="1" t="s">
         <v>132</v>
       </c>
     </row>

--- a/design/设计.xlsx
+++ b/design/设计.xlsx
@@ -560,7 +560,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,6 +592,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Fira Code"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1301,152 +1308,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1489,6 +1496,9 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1507,13 +1517,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
@@ -1549,7 +1559,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
@@ -1883,22 +1893,22 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="8.88888888888889" style="17"/>
+    <col min="2" max="2" width="8.88888888888889" style="18"/>
     <col min="3" max="3" width="18.4444444444444" customWidth="1"/>
     <col min="9" max="9" width="9.88888888888889" customWidth="1"/>
     <col min="10" max="10" width="44.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" ht="18.75" spans="1:11">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
+    <row r="1" s="16" customFormat="1" ht="18.75" spans="1:11">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -1915,504 +1925,504 @@
       <c r="J1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="16" customFormat="1" ht="19.5" spans="1:11">
-      <c r="A2" s="20" t="s">
+    <row r="2" s="17" customFormat="1" ht="19.5" spans="1:11">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="23">
         <v>6</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="23">
         <v>5</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="23">
         <v>5</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="23">
         <v>5</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="23">
         <v>5</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="23">
         <v>6</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:11">
-      <c r="A3" s="23">
-        <v>0</v>
-      </c>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="24">
+        <v>0</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="25">
-        <v>0</v>
-      </c>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="26">
+        <v>0</v>
+      </c>
+      <c r="E3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="30" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="35"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="26">
-        <v>1</v>
-      </c>
-      <c r="B4" s="27"/>
+      <c r="A4" s="27">
+        <v>1</v>
+      </c>
+      <c r="B4" s="28"/>
       <c r="C4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="25">
-        <v>0</v>
-      </c>
-      <c r="E4" s="29" t="s">
+      <c r="D4" s="26">
+        <v>0</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="36"/>
+      <c r="K4" s="37"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="26">
+      <c r="A5" s="27">
         <v>2</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="29">
         <v>1001</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="29" t="s">
+      <c r="H5" s="32"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="36"/>
+      <c r="K5" s="37"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="26">
+      <c r="A6" s="27">
         <v>3</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="29">
         <v>1100</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="29" t="s">
+      <c r="H6" s="32"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="36"/>
+      <c r="K6" s="37"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="26">
+      <c r="A7" s="27">
         <v>4</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="28">
-        <v>0</v>
-      </c>
-      <c r="E7" s="29" t="s">
+      <c r="D7" s="29">
+        <v>0</v>
+      </c>
+      <c r="E7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="36"/>
+      <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="26">
+      <c r="A8" s="27">
         <v>5</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="29">
         <v>1101</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="29" t="s">
+      <c r="H8" s="32"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="36"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="26">
+      <c r="A9" s="27">
         <v>6</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="28">
-        <v>0</v>
-      </c>
-      <c r="E9" s="29" t="s">
+      <c r="D9" s="29">
+        <v>0</v>
+      </c>
+      <c r="E9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="36"/>
+      <c r="K9" s="37"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="26">
+      <c r="A10" s="27">
         <v>7</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="28" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="28">
-        <v>0</v>
-      </c>
-      <c r="E10" s="32" t="s">
+      <c r="D10" s="29">
+        <v>0</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="36"/>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="26">
+      <c r="A11" s="27">
         <v>8</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="28" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="29">
         <v>1010</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="29" t="s">
+      <c r="H11" s="32"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="36"/>
+      <c r="K11" s="37"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="26">
+      <c r="A12" s="27">
         <v>9</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="28" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="29">
         <v>101011</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="29" t="s">
+      <c r="H12" s="32"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="36"/>
+      <c r="K12" s="37"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="26">
+      <c r="A13" s="27">
         <v>10</v>
       </c>
-      <c r="B13" s="27"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="28">
-        <v>101011</v>
-      </c>
-      <c r="E13" s="29" t="s">
+      <c r="D13" s="29">
+        <v>100011</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="29" t="s">
+      <c r="H13" s="32"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="36"/>
+      <c r="K13" s="37"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="26">
+      <c r="A14" s="27">
         <v>11</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="29">
         <v>100</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="29" t="s">
+      <c r="H14" s="32"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="36"/>
+      <c r="K14" s="37"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="26">
+      <c r="A15" s="27">
         <v>12</v>
       </c>
-      <c r="B15" s="27"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="29">
         <v>101</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="29" t="s">
+      <c r="H15" s="32"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="36"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="26">
+      <c r="A16" s="27">
         <v>13</v>
       </c>
-      <c r="B16" s="27"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="28">
-        <v>1</v>
-      </c>
-      <c r="E16" s="29" t="s">
+      <c r="D16" s="29">
+        <v>1</v>
+      </c>
+      <c r="E16" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="29" t="s">
+      <c r="H16" s="32"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="36"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="26">
+      <c r="A17" s="27">
         <v>14</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="28" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="29">
         <v>10</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="29" t="s">
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="36"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="26">
+      <c r="A18" s="27">
         <v>15</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="28" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="29">
         <v>111111</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="29" t="s">
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="K18" s="36"/>
+      <c r="K18" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2444,7 +2454,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
@@ -2489,7 +2499,7 @@
       <c r="J1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="14" t="s">
         <v>70</v>
       </c>
       <c r="L1" s="6" t="s">
@@ -2499,7 +2509,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:13">
+    <row r="2" spans="1:13">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -2530,7 +2540,7 @@
       <c r="J2" s="11">
         <v>1</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="15">
         <v>0</v>
       </c>
       <c r="L2" s="11">
@@ -2571,7 +2581,7 @@
       <c r="J3" s="11">
         <v>1</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="15">
         <v>0</v>
       </c>
       <c r="L3" s="11">
@@ -2612,7 +2622,7 @@
       <c r="J4" s="11">
         <v>1</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="15">
         <v>0</v>
       </c>
       <c r="L4" s="11">
@@ -2653,7 +2663,7 @@
       <c r="J5" s="11">
         <v>1</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="15">
         <v>0</v>
       </c>
       <c r="L5" s="11">
@@ -2694,7 +2704,7 @@
       <c r="J6" s="11">
         <v>1</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="15">
         <v>0</v>
       </c>
       <c r="L6" s="11">
@@ -2735,7 +2745,7 @@
       <c r="J7" s="11">
         <v>1</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="15">
         <v>0</v>
       </c>
       <c r="L7" s="11">
@@ -2776,7 +2786,7 @@
       <c r="J8" s="11">
         <v>1</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="15">
         <v>0</v>
       </c>
       <c r="L8" s="11">
@@ -2817,7 +2827,7 @@
       <c r="J9" s="11">
         <v>1</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="15">
         <v>0</v>
       </c>
       <c r="L9" s="11">
@@ -2858,7 +2868,7 @@
       <c r="J10" s="11">
         <v>1</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="15">
         <v>0</v>
       </c>
       <c r="L10" s="11">
@@ -2899,7 +2909,7 @@
       <c r="J11" s="11">
         <v>1</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="15">
         <v>0</v>
       </c>
       <c r="L11" s="11">
@@ -2914,7 +2924,7 @@
         <v>44</v>
       </c>
       <c r="B12" s="13">
-        <v>101011</v>
+        <v>100011</v>
       </c>
       <c r="C12" s="11">
         <v>0</v>
@@ -2940,7 +2950,7 @@
       <c r="J12" s="11">
         <v>1</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="15">
         <v>0</v>
       </c>
       <c r="L12" s="11">
@@ -2981,7 +2991,7 @@
       <c r="J13" s="11">
         <v>1</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="15">
         <v>1</v>
       </c>
       <c r="L13" s="11">
@@ -3022,7 +3032,7 @@
       <c r="J14" s="11">
         <v>1</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="15">
         <v>1</v>
       </c>
       <c r="L14" s="11">
@@ -3063,7 +3073,7 @@
       <c r="J15" s="11">
         <v>1</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="15">
         <v>1</v>
       </c>
       <c r="L15" s="11">
@@ -3104,7 +3114,7 @@
       <c r="J16" s="11">
         <v>1</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="15">
         <v>10</v>
       </c>
       <c r="L16" s="11">
@@ -3145,7 +3155,7 @@
       <c r="J17" s="11">
         <v>0</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="15">
         <v>0</v>
       </c>
       <c r="L17" s="11">

--- a/design/设计.xlsx
+++ b/design/设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12225" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12165" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="指令表" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="信号的意义" sheetId="4" r:id="rId3"/>
     <sheet name="ALUctr" sheetId="2" r:id="rId4"/>
     <sheet name="PCsrc" sheetId="5" r:id="rId5"/>
+    <sheet name="测试程序段" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="303">
   <si>
     <t>编号</t>
   </si>
@@ -546,25 +547,542 @@
   <si>
     <t>PCsrc可由jump和branch拼接而来</t>
   </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>汇编程序</t>
+  </si>
+  <si>
+    <t>指令代码</t>
+  </si>
+  <si>
+    <t>op（6）</t>
+  </si>
+  <si>
+    <t>shaft（5）</t>
+  </si>
+  <si>
+    <t>funct（6）</t>
+  </si>
+  <si>
+    <t>16进制数代码</t>
+  </si>
+  <si>
+    <t>临时（二进制代码）</t>
+  </si>
+  <si>
+    <t>0x00000000</t>
+  </si>
+  <si>
+    <t>addiu $1,$0,-2</t>
+  </si>
+  <si>
+    <t>001001</t>
+  </si>
+  <si>
+    <t>00000</t>
+  </si>
+  <si>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>1111111111111110</t>
+  </si>
+  <si>
+    <t>2401 FFFE</t>
+  </si>
+  <si>
+    <t>0010 0100 0000 0001 1111 1111 1111 1110</t>
+  </si>
+  <si>
+    <t>0x00000004</t>
+  </si>
+  <si>
+    <t>addiu $2,$0,8</t>
+  </si>
+  <si>
+    <t>00010</t>
+  </si>
+  <si>
+    <t>0000000000001000</t>
+  </si>
+  <si>
+    <t>2402 0008</t>
+  </si>
+  <si>
+    <t>0010 0100 0000 0010 0000 0000 0000 1000</t>
+  </si>
+  <si>
+    <t>0x00000008</t>
+  </si>
+  <si>
+    <t>add $1,$1,$2</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>0022 0820</t>
+  </si>
+  <si>
+    <t>0000 0000 0010 0010 0000 1000 0010 0000</t>
+  </si>
+  <si>
+    <t>0x0000000C</t>
+  </si>
+  <si>
+    <t>sub $1,$1,$2</t>
+  </si>
+  <si>
+    <t>100010</t>
+  </si>
+  <si>
+    <t>0022 0822</t>
+  </si>
+  <si>
+    <t>0000 0000 0010 0010 0000 1000 0010 0010</t>
+  </si>
+  <si>
+    <t>0x00000010</t>
+  </si>
+  <si>
+    <t>andi $1,$1,15</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>0000000000001111</t>
+  </si>
+  <si>
+    <t>3021 000F</t>
+  </si>
+  <si>
+    <t>0011 0000 0010 0001 0000 0000 0000 1111</t>
+  </si>
+  <si>
+    <t>0x00000014</t>
+  </si>
+  <si>
+    <t>and $1,$1,$2</t>
+  </si>
+  <si>
+    <t>100100</t>
+  </si>
+  <si>
+    <t>0022 0824</t>
+  </si>
+  <si>
+    <t>0000 0000 0010 0010 0000 1000 0010 0100</t>
+  </si>
+  <si>
+    <t>0x00000018</t>
+  </si>
+  <si>
+    <t>ori $1,$1,6</t>
+  </si>
+  <si>
+    <t>001101</t>
+  </si>
+  <si>
+    <t>0000000000000110</t>
+  </si>
+  <si>
+    <t>3421 0006</t>
+  </si>
+  <si>
+    <t>0011 0100 0010 0001 0000 0000 0000 0110</t>
+  </si>
+  <si>
+    <t>0x0000001C</t>
+  </si>
+  <si>
+    <t>addiu $3,$0,1</t>
+  </si>
+  <si>
+    <t>00011</t>
+  </si>
+  <si>
+    <t>0000000000000001</t>
+  </si>
+  <si>
+    <t>2403 0001</t>
+  </si>
+  <si>
+    <t>0010 0100 0000 0011 0000 0000 0000 0001</t>
+  </si>
+  <si>
+    <t>0x00000020</t>
+  </si>
+  <si>
+    <t>or $1,$2,$3</t>
+  </si>
+  <si>
+    <t>100101</t>
+  </si>
+  <si>
+    <t>0043 0825</t>
+  </si>
+  <si>
+    <t>0000 0000 0100 0011 0000 1000 0010 0101</t>
+  </si>
+  <si>
+    <t>0x00000024</t>
+  </si>
+  <si>
+    <t>sll $1,$1,1</t>
+  </si>
+  <si>
+    <t>0001 0840</t>
+  </si>
+  <si>
+    <t>0000 0000 0000 0001 0000 1000 0100 0000</t>
+  </si>
+  <si>
+    <t>0x00000028</t>
+  </si>
+  <si>
+    <t>slti $3,$2,8</t>
+  </si>
+  <si>
+    <t>001010</t>
+  </si>
+  <si>
+    <t>2843 0008</t>
+  </si>
+  <si>
+    <t>0010 1000 0100 0011 0000 0000 0000 1000</t>
+  </si>
+  <si>
+    <t>0x0000002C</t>
+  </si>
+  <si>
+    <t>slti $4,$2,9</t>
+  </si>
+  <si>
+    <t>00100</t>
+  </si>
+  <si>
+    <t>0000000000001001</t>
+  </si>
+  <si>
+    <t>2844 0009</t>
+  </si>
+  <si>
+    <t>0010 1000 0100 0100 0000 0000 0000 1001</t>
+  </si>
+  <si>
+    <t>0x00000030</t>
+  </si>
+  <si>
+    <t>addiu $1,$1,-18</t>
+  </si>
+  <si>
+    <t>1111111111101110</t>
+  </si>
+  <si>
+    <t>2421 FFEE</t>
+  </si>
+  <si>
+    <t>0010 0100 0010 0001 1111 1111 1110 1110</t>
+  </si>
+  <si>
+    <t>0x00000034</t>
+  </si>
+  <si>
+    <t>addiu $2,$2,-8</t>
+  </si>
+  <si>
+    <t>1111111111111000</t>
+  </si>
+  <si>
+    <t>2442 FFF8</t>
+  </si>
+  <si>
+    <t>0010 0100 0100 0010 1111 1111 1111 1000</t>
+  </si>
+  <si>
+    <t>0x00000038</t>
+  </si>
+  <si>
+    <t>addiu $3,$3,-0</t>
+  </si>
+  <si>
+    <t>0000000000000000</t>
+  </si>
+  <si>
+    <t>2463 0000</t>
+  </si>
+  <si>
+    <t>0010 0100 0110 0011 0000 0000 0000 0000</t>
+  </si>
+  <si>
+    <t>0x0000003C</t>
+  </si>
+  <si>
+    <t>addiu $4,$4,-1</t>
+  </si>
+  <si>
+    <t>1111111111111111</t>
+  </si>
+  <si>
+    <t>2484 FFFF</t>
+  </si>
+  <si>
+    <t>0010 0100 1000 0100 1111 1111 1111 1111</t>
+  </si>
+  <si>
+    <t>0x00000040</t>
+  </si>
+  <si>
+    <t>or $5,$1,$2</t>
+  </si>
+  <si>
+    <t>00101</t>
+  </si>
+  <si>
+    <t>0022 2825</t>
+  </si>
+  <si>
+    <t>0000 0000 0010 0010 0010 1000 0010 0101</t>
+  </si>
+  <si>
+    <t>0x00000044</t>
+  </si>
+  <si>
+    <t>or $5,$5,$3</t>
+  </si>
+  <si>
+    <t>0093 2825</t>
+  </si>
+  <si>
+    <t>0000 0000 1010 0011 0010 1000 0010 0101</t>
+  </si>
+  <si>
+    <t>0x00000048</t>
+  </si>
+  <si>
+    <t>or $5,$5,$4</t>
+  </si>
+  <si>
+    <t>00A4 2825</t>
+  </si>
+  <si>
+    <t>0000 0000 1010 0100 0010 1000 0010 0101</t>
+  </si>
+  <si>
+    <t>0x0000004C</t>
+  </si>
+  <si>
+    <t>addiu $0,$0,-2</t>
+  </si>
+  <si>
+    <t>2400 FFFE</t>
+  </si>
+  <si>
+    <t>0010 0100 0000 0000 1111 1111 1111 1110</t>
+  </si>
+  <si>
+    <t>0x00000050</t>
+  </si>
+  <si>
+    <t>beq $5,$0,1</t>
+  </si>
+  <si>
+    <t>000100</t>
+  </si>
+  <si>
+    <t>1005 0001</t>
+  </si>
+  <si>
+    <t>0001 0000 0000 0101 0000 0000 0000 0001</t>
+  </si>
+  <si>
+    <t>0x00000054</t>
+  </si>
+  <si>
+    <t>111111</t>
+  </si>
+  <si>
+    <t>00000000000000000000000000</t>
+  </si>
+  <si>
+    <t>FC00 0000</t>
+  </si>
+  <si>
+    <t>1111 1100 0000 0000 0000 0000 0000 0000</t>
+  </si>
+  <si>
+    <t>0x00000058</t>
+  </si>
+  <si>
+    <t>addiu $1,$0,0</t>
+  </si>
+  <si>
+    <t>2401 0000</t>
+  </si>
+  <si>
+    <t>0010 0100 0000 0001 0000 0000 0000 0000</t>
+  </si>
+  <si>
+    <t>0x0000005C</t>
+  </si>
+  <si>
+    <t>addiu $2,$0,-1</t>
+  </si>
+  <si>
+    <t>2402 FFFF</t>
+  </si>
+  <si>
+    <t>0010 0100 0000 0010 1111 1111 1111 1111</t>
+  </si>
+  <si>
+    <t>0x00000060</t>
+  </si>
+  <si>
+    <t>sw $2,0($1)</t>
+  </si>
+  <si>
+    <t>101011</t>
+  </si>
+  <si>
+    <t>AC22 0000</t>
+  </si>
+  <si>
+    <t>1010 1100 0010 0010 0000 0000 0000 0000</t>
+  </si>
+  <si>
+    <t>0x00000064</t>
+  </si>
+  <si>
+    <t>lw $1,0($1)</t>
+  </si>
+  <si>
+    <t>100011</t>
+  </si>
+  <si>
+    <t>AC21 0000</t>
+  </si>
+  <si>
+    <t>1000 1100 0010 0001 0000 0000 0000 0000</t>
+  </si>
+  <si>
+    <t>0x00000068</t>
+  </si>
+  <si>
+    <t>bne $1,$2,5</t>
+  </si>
+  <si>
+    <t>000101</t>
+  </si>
+  <si>
+    <t>0000000000000101</t>
+  </si>
+  <si>
+    <t>1422 0005</t>
+  </si>
+  <si>
+    <t>0001 0100 0010 0010 0000 0000 0000 0101</t>
+  </si>
+  <si>
+    <t>0x0000006C</t>
+  </si>
+  <si>
+    <t>bltz $1,1</t>
+  </si>
+  <si>
+    <t>000001</t>
+  </si>
+  <si>
+    <t>0420 0001</t>
+  </si>
+  <si>
+    <t>0000 0100 0010 0000 0000 0000 0000 0001</t>
+  </si>
+  <si>
+    <t>0x00000070</t>
+  </si>
+  <si>
+    <t>0x00000074</t>
+  </si>
+  <si>
+    <t>j 0x7C</t>
+  </si>
+  <si>
+    <t>000010</t>
+  </si>
+  <si>
+    <t>00000000000000000001111100</t>
+  </si>
+  <si>
+    <t>0800 007C</t>
+  </si>
+  <si>
+    <t>0000 1000 0000 0000 0000 0000 0111 1100</t>
+  </si>
+  <si>
+    <t>0x00000078</t>
+  </si>
+  <si>
+    <t>0x0000007C</t>
+  </si>
+  <si>
+    <t>0x00000080</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="000000"/>
-    <numFmt numFmtId="177" formatCode="00"/>
-    <numFmt numFmtId="178" formatCode="000"/>
+    <numFmt numFmtId="176" formatCode="000"/>
+    <numFmt numFmtId="177" formatCode="000000"/>
+    <numFmt numFmtId="178" formatCode="00"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="文泉驿等宽微米黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="文泉驿等宽微米黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="文泉驿等宽微米黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="文泉驿等宽微米黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="文泉驿等宽微米黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -579,13 +1097,6 @@
       <sz val="13"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="文泉驿等宽微米黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -606,6 +1117,13 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -630,27 +1148,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -659,9 +1156,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,46 +1166,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,7 +1189,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,18 +1203,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -761,13 +1272,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,55 +1302,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,7 +1332,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,7 +1416,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,78 +1446,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -955,6 +1466,82 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1202,6 +1789,15 @@
       </top>
       <bottom style="thick">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1210,6 +1806,47 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1230,21 +1867,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1260,21 +1882,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1283,292 +1890,347 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1630,6 +2292,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2238375" y="6572250"/>
+          <a:ext cx="3724275" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1893,536 +2602,536 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E11" sqref="E11:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="8.88888888888889" style="18"/>
+    <col min="2" max="2" width="8.88888888888889" style="43"/>
     <col min="3" max="3" width="18.4444444444444" customWidth="1"/>
     <col min="9" max="9" width="9.88888888888889" customWidth="1"/>
     <col min="10" max="10" width="44.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" ht="18.75" spans="1:11">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" s="41" customFormat="1" ht="18.75" spans="1:11">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="59" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="1" ht="19.5" spans="1:11">
-      <c r="A2" s="21" t="s">
+    <row r="2" s="42" customFormat="1" ht="19.5" spans="1:11">
+      <c r="A2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="48">
         <v>6</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="48">
         <v>5</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="48">
         <v>5</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="48">
         <v>5</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="48">
         <v>5</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="48">
         <v>6</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="60" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:11">
-      <c r="A3" s="24">
-        <v>0</v>
-      </c>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="49">
+        <v>0</v>
+      </c>
+      <c r="B3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="26">
-        <v>0</v>
-      </c>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="51">
+        <v>0</v>
+      </c>
+      <c r="E3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="36"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="27">
-        <v>1</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="52">
+        <v>1</v>
+      </c>
+      <c r="B4" s="53"/>
+      <c r="C4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="26">
-        <v>0</v>
-      </c>
-      <c r="E4" s="30" t="s">
+      <c r="D4" s="51">
+        <v>0</v>
+      </c>
+      <c r="E4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="37"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="27">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="54">
         <v>1001</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="30" t="s">
+      <c r="H5" s="57"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="37"/>
+      <c r="K5" s="62"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="27">
+      <c r="A6" s="52">
         <v>3</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="54">
         <v>1100</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="30" t="s">
+      <c r="H6" s="57"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="37"/>
+      <c r="K6" s="62"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="27">
+      <c r="A7" s="52">
         <v>4</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="29">
-        <v>0</v>
-      </c>
-      <c r="E7" s="30" t="s">
+      <c r="D7" s="54">
+        <v>0</v>
+      </c>
+      <c r="E7" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="37"/>
+      <c r="K7" s="62"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="27">
+      <c r="A8" s="52">
         <v>5</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="54">
         <v>1101</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="30" t="s">
+      <c r="H8" s="57"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="37"/>
+      <c r="K8" s="62"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="27">
+      <c r="A9" s="52">
         <v>6</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="29">
-        <v>0</v>
-      </c>
-      <c r="E9" s="30" t="s">
+      <c r="D9" s="54">
+        <v>0</v>
+      </c>
+      <c r="E9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="37"/>
+      <c r="K9" s="62"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="27">
+      <c r="A10" s="52">
         <v>7</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="29">
-        <v>0</v>
-      </c>
-      <c r="E10" s="33" t="s">
+      <c r="D10" s="54">
+        <v>0</v>
+      </c>
+      <c r="E10" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="37"/>
+      <c r="K10" s="62"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="27">
+      <c r="A11" s="52">
         <v>8</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="54">
         <v>1010</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="30" t="s">
+      <c r="H11" s="57"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="37"/>
+      <c r="K11" s="62"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="27">
+      <c r="A12" s="52">
         <v>9</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="54">
         <v>101011</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="30" t="s">
+      <c r="H12" s="57"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="37"/>
+      <c r="K12" s="62"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="27">
+      <c r="A13" s="52">
         <v>10</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="53"/>
+      <c r="C13" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="54">
         <v>100011</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="30" t="s">
+      <c r="H13" s="57"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="37"/>
+      <c r="K13" s="62"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="27">
+      <c r="A14" s="52">
         <v>11</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="54">
         <v>100</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="30" t="s">
+      <c r="H14" s="57"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="37"/>
+      <c r="K14" s="62"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="27">
+      <c r="A15" s="52">
         <v>12</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="53"/>
+      <c r="C15" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="54">
         <v>101</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="32"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="30" t="s">
+      <c r="H15" s="57"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="37"/>
+      <c r="K15" s="62"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="27">
+      <c r="A16" s="52">
         <v>13</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="53"/>
+      <c r="C16" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="29">
-        <v>1</v>
-      </c>
-      <c r="E16" s="30" t="s">
+      <c r="D16" s="54">
+        <v>1</v>
+      </c>
+      <c r="E16" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="30" t="s">
+      <c r="H16" s="57"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="37"/>
+      <c r="K16" s="62"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="27">
+      <c r="A17" s="52">
         <v>14</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="54">
         <v>10</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="30" t="s">
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="37"/>
+      <c r="K17" s="62"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="27">
+      <c r="A18" s="52">
         <v>15</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="54">
         <v>111111</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="30" t="s">
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="K18" s="37"/>
+      <c r="K18" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2453,7 +3162,7 @@
   <sheetPr/>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2469,699 +3178,699 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:13">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="31" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="9" t="s">
+    <row r="2" ht="17.25" spans="1:13">
+      <c r="A2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="10">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11">
-        <v>1</v>
-      </c>
-      <c r="E2" s="11">
-        <v>1</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="B2" s="35">
+        <v>0</v>
+      </c>
+      <c r="C2" s="36">
+        <v>1</v>
+      </c>
+      <c r="D2" s="36">
+        <v>1</v>
+      </c>
+      <c r="E2" s="36">
+        <v>1</v>
+      </c>
+      <c r="F2" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="11">
-        <v>0</v>
-      </c>
-      <c r="I2" s="11">
-        <v>0</v>
-      </c>
-      <c r="J2" s="11">
-        <v>1</v>
-      </c>
-      <c r="K2" s="15">
-        <v>0</v>
-      </c>
-      <c r="L2" s="11">
-        <v>0</v>
-      </c>
-      <c r="M2" s="11">
+      <c r="H2" s="36">
+        <v>0</v>
+      </c>
+      <c r="I2" s="36">
+        <v>0</v>
+      </c>
+      <c r="J2" s="36">
+        <v>1</v>
+      </c>
+      <c r="K2" s="40">
+        <v>0</v>
+      </c>
+      <c r="L2" s="36">
+        <v>0</v>
+      </c>
+      <c r="M2" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="10">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="B3" s="35">
+        <v>0</v>
+      </c>
+      <c r="C3" s="36">
+        <v>1</v>
+      </c>
+      <c r="D3" s="36">
+        <v>1</v>
+      </c>
+      <c r="E3" s="36">
+        <v>1</v>
+      </c>
+      <c r="F3" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11">
-        <v>1</v>
-      </c>
-      <c r="K3" s="15">
-        <v>0</v>
-      </c>
-      <c r="L3" s="11">
-        <v>0</v>
-      </c>
-      <c r="M3" s="11">
+      <c r="H3" s="36">
+        <v>0</v>
+      </c>
+      <c r="I3" s="36">
+        <v>0</v>
+      </c>
+      <c r="J3" s="36">
+        <v>1</v>
+      </c>
+      <c r="K3" s="40">
+        <v>0</v>
+      </c>
+      <c r="L3" s="36">
+        <v>0</v>
+      </c>
+      <c r="M3" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="38">
         <v>1001</v>
       </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="C4" s="36">
+        <v>1</v>
+      </c>
+      <c r="D4" s="36">
+        <v>1</v>
+      </c>
+      <c r="E4" s="36">
+        <v>0</v>
+      </c>
+      <c r="F4" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11">
-        <v>1</v>
-      </c>
-      <c r="K4" s="15">
-        <v>0</v>
-      </c>
-      <c r="L4" s="11">
-        <v>0</v>
-      </c>
-      <c r="M4" s="11">
+      <c r="G4" s="36">
+        <v>0</v>
+      </c>
+      <c r="H4" s="36">
+        <v>0</v>
+      </c>
+      <c r="I4" s="36">
+        <v>0</v>
+      </c>
+      <c r="J4" s="36">
+        <v>1</v>
+      </c>
+      <c r="K4" s="40">
+        <v>0</v>
+      </c>
+      <c r="L4" s="36">
+        <v>0</v>
+      </c>
+      <c r="M4" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="38">
         <v>1100</v>
       </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="C5" s="36">
+        <v>1</v>
+      </c>
+      <c r="D5" s="36">
+        <v>1</v>
+      </c>
+      <c r="E5" s="36">
+        <v>0</v>
+      </c>
+      <c r="F5" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="11">
-        <v>1</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11">
-        <v>1</v>
-      </c>
-      <c r="K5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="11">
-        <v>0</v>
-      </c>
-      <c r="M5" s="11">
+      <c r="G5" s="36">
+        <v>1</v>
+      </c>
+      <c r="H5" s="36">
+        <v>0</v>
+      </c>
+      <c r="I5" s="36">
+        <v>0</v>
+      </c>
+      <c r="J5" s="36">
+        <v>1</v>
+      </c>
+      <c r="K5" s="40">
+        <v>0</v>
+      </c>
+      <c r="L5" s="36">
+        <v>0</v>
+      </c>
+      <c r="M5" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="13">
-        <v>0</v>
-      </c>
-      <c r="C6" s="11">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11">
-        <v>1</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="B6" s="38">
+        <v>0</v>
+      </c>
+      <c r="C6" s="36">
+        <v>1</v>
+      </c>
+      <c r="D6" s="36">
+        <v>1</v>
+      </c>
+      <c r="E6" s="36">
+        <v>1</v>
+      </c>
+      <c r="F6" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="11">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11">
-        <v>1</v>
-      </c>
-      <c r="K6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="11">
-        <v>0</v>
-      </c>
-      <c r="M6" s="11">
+      <c r="H6" s="36">
+        <v>0</v>
+      </c>
+      <c r="I6" s="36">
+        <v>0</v>
+      </c>
+      <c r="J6" s="36">
+        <v>1</v>
+      </c>
+      <c r="K6" s="40">
+        <v>0</v>
+      </c>
+      <c r="L6" s="36">
+        <v>0</v>
+      </c>
+      <c r="M6" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="38">
         <v>1101</v>
       </c>
-      <c r="C7" s="11">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="C7" s="36">
+        <v>1</v>
+      </c>
+      <c r="D7" s="36">
+        <v>1</v>
+      </c>
+      <c r="E7" s="36">
+        <v>0</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
-        <v>1</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0</v>
-      </c>
-      <c r="L7" s="11">
-        <v>0</v>
-      </c>
-      <c r="M7" s="11">
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="36">
+        <v>0</v>
+      </c>
+      <c r="I7" s="36">
+        <v>0</v>
+      </c>
+      <c r="J7" s="36">
+        <v>1</v>
+      </c>
+      <c r="K7" s="40">
+        <v>0</v>
+      </c>
+      <c r="L7" s="36">
+        <v>0</v>
+      </c>
+      <c r="M7" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="13">
-        <v>0</v>
-      </c>
-      <c r="C8" s="11">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11">
-        <v>1</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="B8" s="38">
+        <v>0</v>
+      </c>
+      <c r="C8" s="36">
+        <v>1</v>
+      </c>
+      <c r="D8" s="36">
+        <v>1</v>
+      </c>
+      <c r="E8" s="36">
+        <v>1</v>
+      </c>
+      <c r="F8" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
-        <v>1</v>
-      </c>
-      <c r="K8" s="15">
-        <v>0</v>
-      </c>
-      <c r="L8" s="11">
-        <v>0</v>
-      </c>
-      <c r="M8" s="11">
+      <c r="H8" s="36">
+        <v>0</v>
+      </c>
+      <c r="I8" s="36">
+        <v>0</v>
+      </c>
+      <c r="J8" s="36">
+        <v>1</v>
+      </c>
+      <c r="K8" s="40">
+        <v>0</v>
+      </c>
+      <c r="L8" s="36">
+        <v>0</v>
+      </c>
+      <c r="M8" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="13">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11">
-        <v>1</v>
-      </c>
-      <c r="F9" s="11" t="s">
+      <c r="B9" s="38">
+        <v>0</v>
+      </c>
+      <c r="C9" s="36">
+        <v>1</v>
+      </c>
+      <c r="D9" s="36">
+        <v>0</v>
+      </c>
+      <c r="E9" s="36">
+        <v>1</v>
+      </c>
+      <c r="F9" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
-        <v>1</v>
-      </c>
-      <c r="K9" s="15">
-        <v>0</v>
-      </c>
-      <c r="L9" s="11">
-        <v>0</v>
-      </c>
-      <c r="M9" s="11">
+      <c r="H9" s="36">
+        <v>0</v>
+      </c>
+      <c r="I9" s="36">
+        <v>0</v>
+      </c>
+      <c r="J9" s="36">
+        <v>1</v>
+      </c>
+      <c r="K9" s="40">
+        <v>0</v>
+      </c>
+      <c r="L9" s="36">
+        <v>0</v>
+      </c>
+      <c r="M9" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="38">
         <v>1010</v>
       </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="C10" s="36">
+        <v>1</v>
+      </c>
+      <c r="D10" s="36">
+        <v>1</v>
+      </c>
+      <c r="E10" s="36">
+        <v>0</v>
+      </c>
+      <c r="F10" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="11">
-        <v>1</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11">
-        <v>1</v>
-      </c>
-      <c r="K10" s="15">
-        <v>0</v>
-      </c>
-      <c r="L10" s="11">
-        <v>0</v>
-      </c>
-      <c r="M10" s="11">
+      <c r="G10" s="36">
+        <v>1</v>
+      </c>
+      <c r="H10" s="36">
+        <v>0</v>
+      </c>
+      <c r="I10" s="36">
+        <v>0</v>
+      </c>
+      <c r="J10" s="36">
+        <v>1</v>
+      </c>
+      <c r="K10" s="40">
+        <v>0</v>
+      </c>
+      <c r="L10" s="36">
+        <v>0</v>
+      </c>
+      <c r="M10" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="38">
         <v>101011</v>
       </c>
-      <c r="C11" s="11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="C11" s="36">
+        <v>0</v>
+      </c>
+      <c r="D11" s="36">
+        <v>1</v>
+      </c>
+      <c r="E11" s="36">
+        <v>0</v>
+      </c>
+      <c r="F11" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11">
-        <v>1</v>
-      </c>
-      <c r="K11" s="15">
-        <v>0</v>
-      </c>
-      <c r="L11" s="11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="11">
+      <c r="G11" s="36">
+        <v>1</v>
+      </c>
+      <c r="H11" s="36">
+        <v>1</v>
+      </c>
+      <c r="I11" s="36">
+        <v>0</v>
+      </c>
+      <c r="J11" s="36">
+        <v>1</v>
+      </c>
+      <c r="K11" s="40">
+        <v>0</v>
+      </c>
+      <c r="L11" s="36">
+        <v>0</v>
+      </c>
+      <c r="M11" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="38">
         <v>100011</v>
       </c>
-      <c r="C12" s="11">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0</v>
-      </c>
-      <c r="F12" s="11" t="s">
+      <c r="C12" s="36">
+        <v>0</v>
+      </c>
+      <c r="D12" s="36">
+        <v>1</v>
+      </c>
+      <c r="E12" s="36">
+        <v>0</v>
+      </c>
+      <c r="F12" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="11">
-        <v>1</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11">
-        <v>1</v>
-      </c>
-      <c r="J12" s="11">
-        <v>1</v>
-      </c>
-      <c r="K12" s="15">
-        <v>0</v>
-      </c>
-      <c r="L12" s="11">
-        <v>0</v>
-      </c>
-      <c r="M12" s="11">
+      <c r="G12" s="36">
+        <v>1</v>
+      </c>
+      <c r="H12" s="36">
+        <v>0</v>
+      </c>
+      <c r="I12" s="36">
+        <v>1</v>
+      </c>
+      <c r="J12" s="36">
+        <v>1</v>
+      </c>
+      <c r="K12" s="40">
+        <v>0</v>
+      </c>
+      <c r="L12" s="36">
+        <v>0</v>
+      </c>
+      <c r="M12" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="38">
         <v>100</v>
       </c>
-      <c r="C13" s="11">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="C13" s="36">
+        <v>0</v>
+      </c>
+      <c r="D13" s="36">
+        <v>1</v>
+      </c>
+      <c r="E13" s="36">
+        <v>0</v>
+      </c>
+      <c r="F13" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="11">
-        <v>1</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11">
-        <v>1</v>
-      </c>
-      <c r="K13" s="15">
-        <v>1</v>
-      </c>
-      <c r="L13" s="11">
-        <v>0</v>
-      </c>
-      <c r="M13" s="11">
+      <c r="G13" s="36">
+        <v>1</v>
+      </c>
+      <c r="H13" s="36">
+        <v>0</v>
+      </c>
+      <c r="I13" s="36">
+        <v>0</v>
+      </c>
+      <c r="J13" s="36">
+        <v>1</v>
+      </c>
+      <c r="K13" s="40">
+        <v>1</v>
+      </c>
+      <c r="L13" s="36">
+        <v>0</v>
+      </c>
+      <c r="M13" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="38">
         <v>101</v>
       </c>
-      <c r="C14" s="11">
-        <v>0</v>
-      </c>
-      <c r="D14" s="11">
-        <v>1</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="C14" s="36">
+        <v>0</v>
+      </c>
+      <c r="D14" s="36">
+        <v>1</v>
+      </c>
+      <c r="E14" s="36">
+        <v>0</v>
+      </c>
+      <c r="F14" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="11">
-        <v>1</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11">
-        <v>1</v>
-      </c>
-      <c r="K14" s="15">
-        <v>1</v>
-      </c>
-      <c r="L14" s="11">
-        <v>0</v>
-      </c>
-      <c r="M14" s="11">
+      <c r="G14" s="36">
+        <v>1</v>
+      </c>
+      <c r="H14" s="36">
+        <v>0</v>
+      </c>
+      <c r="I14" s="36">
+        <v>0</v>
+      </c>
+      <c r="J14" s="36">
+        <v>1</v>
+      </c>
+      <c r="K14" s="40">
+        <v>1</v>
+      </c>
+      <c r="L14" s="36">
+        <v>0</v>
+      </c>
+      <c r="M14" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="13">
-        <v>1</v>
-      </c>
-      <c r="C15" s="11">
-        <v>0</v>
-      </c>
-      <c r="D15" s="11">
-        <v>1</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11" t="s">
+      <c r="B15" s="38">
+        <v>1</v>
+      </c>
+      <c r="C15" s="36">
+        <v>0</v>
+      </c>
+      <c r="D15" s="36">
+        <v>1</v>
+      </c>
+      <c r="E15" s="36">
+        <v>0</v>
+      </c>
+      <c r="F15" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="11">
-        <v>1</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11">
-        <v>1</v>
-      </c>
-      <c r="K15" s="15">
-        <v>1</v>
-      </c>
-      <c r="L15" s="11">
-        <v>0</v>
-      </c>
-      <c r="M15" s="11">
+      <c r="G15" s="36">
+        <v>1</v>
+      </c>
+      <c r="H15" s="36">
+        <v>0</v>
+      </c>
+      <c r="I15" s="36">
+        <v>0</v>
+      </c>
+      <c r="J15" s="36">
+        <v>1</v>
+      </c>
+      <c r="K15" s="40">
+        <v>1</v>
+      </c>
+      <c r="L15" s="36">
+        <v>0</v>
+      </c>
+      <c r="M15" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="38">
         <v>10</v>
       </c>
-      <c r="C16" s="11">
-        <v>0</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="36">
+        <v>0</v>
+      </c>
+      <c r="D16" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="H16" s="11">
-        <v>0</v>
-      </c>
-      <c r="I16" s="11">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11">
-        <v>1</v>
-      </c>
-      <c r="K16" s="15">
+      <c r="H16" s="36">
+        <v>0</v>
+      </c>
+      <c r="I16" s="36">
+        <v>0</v>
+      </c>
+      <c r="J16" s="36">
+        <v>1</v>
+      </c>
+      <c r="K16" s="40">
         <v>10</v>
       </c>
-      <c r="L16" s="11">
-        <v>1</v>
-      </c>
-      <c r="M16" s="11">
+      <c r="L16" s="36">
+        <v>1</v>
+      </c>
+      <c r="M16" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="38">
         <v>111111</v>
       </c>
-      <c r="C17" s="11">
-        <v>0</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="36">
+        <v>0</v>
+      </c>
+      <c r="D17" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="15">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
-      <c r="M17" s="11">
+      <c r="H17" s="36">
+        <v>0</v>
+      </c>
+      <c r="I17" s="36">
+        <v>0</v>
+      </c>
+      <c r="J17" s="36">
+        <v>0</v>
+      </c>
+      <c r="K17" s="40">
+        <v>0</v>
+      </c>
+      <c r="L17" s="36">
+        <v>0</v>
+      </c>
+      <c r="M17" s="36">
         <v>0</v>
       </c>
     </row>
@@ -3189,212 +3898,212 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="31" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="26" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="26" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="26" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="26" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="26" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="26" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="26" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3415,107 +4124,107 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="4"/>
+    <col min="1" max="1" width="8.88888888888889" style="29"/>
     <col min="2" max="2" width="13.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="17.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="26" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="30">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="26" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="30">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="26" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="5">
+      <c r="A4" s="30">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="26" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5">
+      <c r="A5" s="30">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="26" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5">
+      <c r="A6" s="30">
         <v>100</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="26" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5">
+      <c r="A7" s="30">
         <v>101</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="26" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5">
+      <c r="A8" s="30">
         <v>110</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="26" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5">
+      <c r="A9" s="30">
         <v>111</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="26" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3540,62 +4249,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="26" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="27">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="26" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="27">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="26" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2">
+      <c r="A4" s="27">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="26" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2">
+      <c r="A5" s="27">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="28" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3603,4 +4312,1035 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="10.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="15.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="6.88888888888889" customWidth="1"/>
+    <col min="4" max="6" width="5.55555555555556" customWidth="1"/>
+    <col min="7" max="8" width="9.88888888888889" customWidth="1"/>
+    <col min="9" max="9" width="10.8888888888889" customWidth="1"/>
+    <col min="10" max="10" width="71.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" ht="17.25" spans="1:10">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" spans="1:10">
+      <c r="A3" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" spans="1:10">
+      <c r="A4" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="1:10">
+      <c r="A5" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" spans="1:10">
+      <c r="A6" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="1:10">
+      <c r="A7" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="1:10">
+      <c r="A8" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" spans="1:10">
+      <c r="A9" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:10">
+      <c r="A10" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" spans="1:10">
+      <c r="A11" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:10">
+      <c r="A12" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" spans="1:10">
+      <c r="A13" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" ht="17.25" spans="1:10">
+      <c r="A14" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" spans="1:10">
+      <c r="A15" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" spans="1:10">
+      <c r="A16" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" ht="17.25" spans="1:10">
+      <c r="A17" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" ht="17.25" spans="1:10">
+      <c r="A18" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" ht="17.25" spans="1:10">
+      <c r="A19" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" ht="17.25" spans="1:10">
+      <c r="A20" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" ht="17.25" spans="1:10">
+      <c r="A21" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" ht="17.25" spans="1:10">
+      <c r="A22" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" ht="17.25" spans="1:10">
+      <c r="A23" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" ht="17.25" spans="1:10">
+      <c r="A24" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" ht="17.25" spans="1:10">
+      <c r="A25" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" ht="17.25" spans="1:10">
+      <c r="A26" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" ht="17.25" spans="1:10">
+      <c r="A27" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" ht="17.25" spans="1:10">
+      <c r="A28" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" ht="17.25" spans="1:10">
+      <c r="A29" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" ht="17.25" spans="1:10">
+      <c r="A30" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="J30" s="25" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" ht="17.25" spans="1:10">
+      <c r="A31" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="J31" s="25" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" ht="17.25" spans="1:10">
+      <c r="A32" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33" ht="17.25" spans="1:10">
+      <c r="A33" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="J33" s="25" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34" ht="17.25" spans="1:10">
+      <c r="A34" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="J34" s="25" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" ht="17.25" spans="1:10">
+      <c r="A35" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/design/设计.xlsx
+++ b/design/设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12165" activeTab="5"/>
+    <workbookView windowWidth="14400" windowHeight="12225" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="指令表" sheetId="1" r:id="rId1"/>
@@ -965,7 +965,7 @@
     <t>100011</t>
   </si>
   <si>
-    <t>AC21 0000</t>
+    <t>A821 0000</t>
   </si>
   <si>
     <t>1000 1100 0010 0001 0000 0000 0000 0000</t>
@@ -1016,13 +1016,13 @@
     <t>000010</t>
   </si>
   <si>
-    <t>00000000000000000001111100</t>
-  </si>
-  <si>
-    <t>0800 007C</t>
-  </si>
-  <si>
-    <t>0000 1000 0000 0000 0000 0000 0111 1100</t>
+    <t>00000000000000000000011111</t>
+  </si>
+  <si>
+    <t>0800 001F</t>
+  </si>
+  <si>
+    <t>0000 1000 0000 0000 0000 0000 0001 1111</t>
   </si>
   <si>
     <t>0x00000078</t>
@@ -1039,13 +1039,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="000"/>
-    <numFmt numFmtId="177" formatCode="000000"/>
-    <numFmt numFmtId="178" formatCode="00"/>
+    <numFmt numFmtId="176" formatCode="000000"/>
+    <numFmt numFmtId="177" formatCode="00"/>
+    <numFmt numFmtId="178" formatCode="000"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1134,23 +1134,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1158,15 +1142,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1181,7 +1165,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1196,24 +1226,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1226,8 +1240,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1238,28 +1260,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1278,13 +1278,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,7 +1296,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,19 +1320,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1338,19 +1350,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1362,67 +1440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1434,25 +1452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1806,7 +1806,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1826,28 +1841,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1867,26 +1880,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1895,142 +1895,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2040,7 +2040,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2053,21 +2053,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -2080,12 +2071,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2113,25 +2098,19 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2146,7 +2125,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2155,13 +2134,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2194,7 +2173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
@@ -2203,7 +2182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2324,7 +2303,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2238375" y="6572250"/>
+          <a:off x="2238375" y="6553200"/>
           <a:ext cx="3724275" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2607,531 +2586,531 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="8.88888888888889" style="43"/>
+    <col min="2" max="2" width="8.88888888888889" style="36"/>
     <col min="3" max="3" width="18.4444444444444" customWidth="1"/>
     <col min="9" max="9" width="9.88888888888889" customWidth="1"/>
     <col min="10" max="10" width="44.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="41" customFormat="1" ht="18.75" spans="1:11">
-      <c r="A1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31" t="s">
+    <row r="1" s="34" customFormat="1" ht="18.75" spans="1:11">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="52" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="42" customFormat="1" ht="19.5" spans="1:11">
-      <c r="A2" s="46" t="s">
+    <row r="2" s="35" customFormat="1" ht="19.5" spans="1:11">
+      <c r="A2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="41">
         <v>6</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="41">
         <v>5</v>
       </c>
-      <c r="F2" s="48">
+      <c r="F2" s="41">
         <v>5</v>
       </c>
-      <c r="G2" s="48">
+      <c r="G2" s="41">
         <v>5</v>
       </c>
-      <c r="H2" s="48">
+      <c r="H2" s="41">
         <v>5</v>
       </c>
-      <c r="I2" s="48">
+      <c r="I2" s="41">
         <v>6</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="60" t="s">
+      <c r="K2" s="53" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:11">
-      <c r="A3" s="49">
-        <v>0</v>
-      </c>
-      <c r="B3" s="50" t="s">
+      <c r="A3" s="42">
+        <v>0</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="51">
-        <v>0</v>
-      </c>
-      <c r="E3" s="55" t="s">
+      <c r="D3" s="44">
+        <v>0</v>
+      </c>
+      <c r="E3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="58" t="s">
+      <c r="J3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="61"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="52">
-        <v>1</v>
-      </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="37" t="s">
+      <c r="A4" s="45">
+        <v>1</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="51">
-        <v>0</v>
-      </c>
-      <c r="E4" s="55" t="s">
+      <c r="D4" s="44">
+        <v>0</v>
+      </c>
+      <c r="E4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="62"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="52">
+      <c r="A5" s="45">
         <v>2</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="37" t="s">
+      <c r="B5" s="46"/>
+      <c r="C5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="47">
         <v>1001</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="55" t="s">
+      <c r="H5" s="50"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="62"/>
+      <c r="K5" s="55"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="52">
+      <c r="A6" s="45">
         <v>3</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="47">
         <v>1100</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="55" t="s">
+      <c r="H6" s="50"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="62"/>
+      <c r="K6" s="55"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="52">
+      <c r="A7" s="45">
         <v>4</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="37" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="54">
-        <v>0</v>
-      </c>
-      <c r="E7" s="55" t="s">
+      <c r="D7" s="47">
+        <v>0</v>
+      </c>
+      <c r="E7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="55" t="s">
+      <c r="J7" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="62"/>
+      <c r="K7" s="55"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="52">
+      <c r="A8" s="45">
         <v>5</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="37" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="47">
         <v>1101</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="57"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="55" t="s">
+      <c r="H8" s="50"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="62"/>
+      <c r="K8" s="55"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="52">
+      <c r="A9" s="45">
         <v>6</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="37" t="s">
+      <c r="B9" s="46"/>
+      <c r="C9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="54">
-        <v>0</v>
-      </c>
-      <c r="E9" s="55" t="s">
+      <c r="D9" s="47">
+        <v>0</v>
+      </c>
+      <c r="E9" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="62"/>
+      <c r="K9" s="55"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="52">
+      <c r="A10" s="45">
         <v>7</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="54">
-        <v>0</v>
-      </c>
-      <c r="E10" s="58" t="s">
+      <c r="D10" s="47">
+        <v>0</v>
+      </c>
+      <c r="E10" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="55" t="s">
+      <c r="H10" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="55" t="s">
+      <c r="J10" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="62"/>
+      <c r="K10" s="55"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="52">
+      <c r="A11" s="45">
         <v>8</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="47">
         <v>1010</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="57"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="55" t="s">
+      <c r="H11" s="50"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="62"/>
+      <c r="K11" s="55"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="52">
+      <c r="A12" s="45">
         <v>9</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="47">
         <v>101011</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="55" t="s">
+      <c r="H12" s="50"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="62"/>
+      <c r="K12" s="55"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="52">
+      <c r="A13" s="45">
         <v>10</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="37" t="s">
+      <c r="B13" s="46"/>
+      <c r="C13" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="47">
         <v>100011</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="57"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="55" t="s">
+      <c r="H13" s="50"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="62"/>
+      <c r="K13" s="55"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="52">
+      <c r="A14" s="45">
         <v>11</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="47">
         <v>100</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="55" t="s">
+      <c r="H14" s="50"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="62"/>
+      <c r="K14" s="55"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="52">
+      <c r="A15" s="45">
         <v>12</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="37" t="s">
+      <c r="B15" s="46"/>
+      <c r="C15" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="47">
         <v>101</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="57"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="55" t="s">
+      <c r="H15" s="50"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="62"/>
+      <c r="K15" s="55"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="52">
+      <c r="A16" s="45">
         <v>13</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="37" t="s">
+      <c r="B16" s="46"/>
+      <c r="C16" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="54">
-        <v>1</v>
-      </c>
-      <c r="E16" s="55" t="s">
+      <c r="D16" s="47">
+        <v>1</v>
+      </c>
+      <c r="E16" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="56" t="s">
+      <c r="G16" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="55" t="s">
+      <c r="H16" s="50"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="62"/>
+      <c r="K16" s="55"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="52">
+      <c r="A17" s="45">
         <v>14</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="54">
+      <c r="D17" s="47">
         <v>10</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="55" t="s">
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="62"/>
+      <c r="K17" s="55"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="52">
+      <c r="A18" s="45">
         <v>15</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="54">
+      <c r="D18" s="47">
         <v>111111</v>
       </c>
-      <c r="E18" s="56" t="s">
+      <c r="E18" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="55" t="s">
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="K18" s="62"/>
+      <c r="K18" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3178,699 +3157,699 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:13">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="24" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:13">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="35">
-        <v>0</v>
-      </c>
-      <c r="C2" s="36">
-        <v>1</v>
-      </c>
-      <c r="D2" s="36">
-        <v>1</v>
-      </c>
-      <c r="E2" s="36">
-        <v>1</v>
-      </c>
-      <c r="F2" s="36" t="s">
+      <c r="B2" s="28">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29">
+        <v>1</v>
+      </c>
+      <c r="E2" s="29">
+        <v>1</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="36">
-        <v>0</v>
-      </c>
-      <c r="I2" s="36">
-        <v>0</v>
-      </c>
-      <c r="J2" s="36">
-        <v>1</v>
-      </c>
-      <c r="K2" s="40">
-        <v>0</v>
-      </c>
-      <c r="L2" s="36">
-        <v>0</v>
-      </c>
-      <c r="M2" s="36">
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="29">
+        <v>0</v>
+      </c>
+      <c r="J2" s="29">
+        <v>1</v>
+      </c>
+      <c r="K2" s="33">
+        <v>0</v>
+      </c>
+      <c r="L2" s="29">
+        <v>0</v>
+      </c>
+      <c r="M2" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="35">
-        <v>0</v>
-      </c>
-      <c r="C3" s="36">
-        <v>1</v>
-      </c>
-      <c r="D3" s="36">
-        <v>1</v>
-      </c>
-      <c r="E3" s="36">
-        <v>1</v>
-      </c>
-      <c r="F3" s="36" t="s">
+      <c r="B3" s="28">
+        <v>0</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29">
+        <v>1</v>
+      </c>
+      <c r="E3" s="29">
+        <v>1</v>
+      </c>
+      <c r="F3" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="36">
-        <v>0</v>
-      </c>
-      <c r="I3" s="36">
-        <v>0</v>
-      </c>
-      <c r="J3" s="36">
-        <v>1</v>
-      </c>
-      <c r="K3" s="40">
-        <v>0</v>
-      </c>
-      <c r="L3" s="36">
-        <v>0</v>
-      </c>
-      <c r="M3" s="36">
+      <c r="H3" s="29">
+        <v>0</v>
+      </c>
+      <c r="I3" s="29">
+        <v>0</v>
+      </c>
+      <c r="J3" s="29">
+        <v>1</v>
+      </c>
+      <c r="K3" s="33">
+        <v>0</v>
+      </c>
+      <c r="L3" s="29">
+        <v>0</v>
+      </c>
+      <c r="M3" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="31">
         <v>1001</v>
       </c>
-      <c r="C4" s="36">
-        <v>1</v>
-      </c>
-      <c r="D4" s="36">
-        <v>1</v>
-      </c>
-      <c r="E4" s="36">
-        <v>0</v>
-      </c>
-      <c r="F4" s="36" t="s">
+      <c r="C4" s="29">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29">
+        <v>1</v>
+      </c>
+      <c r="E4" s="29">
+        <v>0</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="36">
-        <v>0</v>
-      </c>
-      <c r="H4" s="36">
-        <v>0</v>
-      </c>
-      <c r="I4" s="36">
-        <v>0</v>
-      </c>
-      <c r="J4" s="36">
-        <v>1</v>
-      </c>
-      <c r="K4" s="40">
-        <v>0</v>
-      </c>
-      <c r="L4" s="36">
-        <v>0</v>
-      </c>
-      <c r="M4" s="36">
+      <c r="G4" s="29">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29">
+        <v>0</v>
+      </c>
+      <c r="I4" s="29">
+        <v>0</v>
+      </c>
+      <c r="J4" s="29">
+        <v>1</v>
+      </c>
+      <c r="K4" s="33">
+        <v>0</v>
+      </c>
+      <c r="L4" s="29">
+        <v>0</v>
+      </c>
+      <c r="M4" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="31">
         <v>1100</v>
       </c>
-      <c r="C5" s="36">
-        <v>1</v>
-      </c>
-      <c r="D5" s="36">
-        <v>1</v>
-      </c>
-      <c r="E5" s="36">
-        <v>0</v>
-      </c>
-      <c r="F5" s="36" t="s">
+      <c r="C5" s="29">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29">
+        <v>1</v>
+      </c>
+      <c r="E5" s="29">
+        <v>0</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="36">
-        <v>1</v>
-      </c>
-      <c r="H5" s="36">
-        <v>0</v>
-      </c>
-      <c r="I5" s="36">
-        <v>0</v>
-      </c>
-      <c r="J5" s="36">
-        <v>1</v>
-      </c>
-      <c r="K5" s="40">
-        <v>0</v>
-      </c>
-      <c r="L5" s="36">
-        <v>0</v>
-      </c>
-      <c r="M5" s="36">
+      <c r="G5" s="29">
+        <v>1</v>
+      </c>
+      <c r="H5" s="29">
+        <v>0</v>
+      </c>
+      <c r="I5" s="29">
+        <v>0</v>
+      </c>
+      <c r="J5" s="29">
+        <v>1</v>
+      </c>
+      <c r="K5" s="33">
+        <v>0</v>
+      </c>
+      <c r="L5" s="29">
+        <v>0</v>
+      </c>
+      <c r="M5" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="38">
-        <v>0</v>
-      </c>
-      <c r="C6" s="36">
-        <v>1</v>
-      </c>
-      <c r="D6" s="36">
-        <v>1</v>
-      </c>
-      <c r="E6" s="36">
-        <v>1</v>
-      </c>
-      <c r="F6" s="36" t="s">
+      <c r="B6" s="31">
+        <v>0</v>
+      </c>
+      <c r="C6" s="29">
+        <v>1</v>
+      </c>
+      <c r="D6" s="29">
+        <v>1</v>
+      </c>
+      <c r="E6" s="29">
+        <v>1</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="36">
-        <v>0</v>
-      </c>
-      <c r="I6" s="36">
-        <v>0</v>
-      </c>
-      <c r="J6" s="36">
-        <v>1</v>
-      </c>
-      <c r="K6" s="40">
-        <v>0</v>
-      </c>
-      <c r="L6" s="36">
-        <v>0</v>
-      </c>
-      <c r="M6" s="36">
+      <c r="H6" s="29">
+        <v>0</v>
+      </c>
+      <c r="I6" s="29">
+        <v>0</v>
+      </c>
+      <c r="J6" s="29">
+        <v>1</v>
+      </c>
+      <c r="K6" s="33">
+        <v>0</v>
+      </c>
+      <c r="L6" s="29">
+        <v>0</v>
+      </c>
+      <c r="M6" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="31">
         <v>1101</v>
       </c>
-      <c r="C7" s="36">
-        <v>1</v>
-      </c>
-      <c r="D7" s="36">
-        <v>1</v>
-      </c>
-      <c r="E7" s="36">
-        <v>0</v>
-      </c>
-      <c r="F7" s="36" t="s">
+      <c r="C7" s="29">
+        <v>1</v>
+      </c>
+      <c r="D7" s="29">
+        <v>1</v>
+      </c>
+      <c r="E7" s="29">
+        <v>0</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="36">
-        <v>0</v>
-      </c>
-      <c r="H7" s="36">
-        <v>0</v>
-      </c>
-      <c r="I7" s="36">
-        <v>0</v>
-      </c>
-      <c r="J7" s="36">
-        <v>1</v>
-      </c>
-      <c r="K7" s="40">
-        <v>0</v>
-      </c>
-      <c r="L7" s="36">
-        <v>0</v>
-      </c>
-      <c r="M7" s="36">
+      <c r="G7" s="29">
+        <v>0</v>
+      </c>
+      <c r="H7" s="29">
+        <v>0</v>
+      </c>
+      <c r="I7" s="29">
+        <v>0</v>
+      </c>
+      <c r="J7" s="29">
+        <v>1</v>
+      </c>
+      <c r="K7" s="33">
+        <v>0</v>
+      </c>
+      <c r="L7" s="29">
+        <v>0</v>
+      </c>
+      <c r="M7" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="38">
-        <v>0</v>
-      </c>
-      <c r="C8" s="36">
-        <v>1</v>
-      </c>
-      <c r="D8" s="36">
-        <v>1</v>
-      </c>
-      <c r="E8" s="36">
-        <v>1</v>
-      </c>
-      <c r="F8" s="36" t="s">
+      <c r="B8" s="31">
+        <v>0</v>
+      </c>
+      <c r="C8" s="29">
+        <v>1</v>
+      </c>
+      <c r="D8" s="29">
+        <v>1</v>
+      </c>
+      <c r="E8" s="29">
+        <v>1</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="36">
-        <v>0</v>
-      </c>
-      <c r="I8" s="36">
-        <v>0</v>
-      </c>
-      <c r="J8" s="36">
-        <v>1</v>
-      </c>
-      <c r="K8" s="40">
-        <v>0</v>
-      </c>
-      <c r="L8" s="36">
-        <v>0</v>
-      </c>
-      <c r="M8" s="36">
+      <c r="H8" s="29">
+        <v>0</v>
+      </c>
+      <c r="I8" s="29">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29">
+        <v>1</v>
+      </c>
+      <c r="K8" s="33">
+        <v>0</v>
+      </c>
+      <c r="L8" s="29">
+        <v>0</v>
+      </c>
+      <c r="M8" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="38">
-        <v>0</v>
-      </c>
-      <c r="C9" s="36">
-        <v>1</v>
-      </c>
-      <c r="D9" s="36">
-        <v>0</v>
-      </c>
-      <c r="E9" s="36">
-        <v>1</v>
-      </c>
-      <c r="F9" s="36" t="s">
+      <c r="B9" s="31">
+        <v>0</v>
+      </c>
+      <c r="C9" s="29">
+        <v>1</v>
+      </c>
+      <c r="D9" s="29">
+        <v>0</v>
+      </c>
+      <c r="E9" s="29">
+        <v>1</v>
+      </c>
+      <c r="F9" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="36">
-        <v>0</v>
-      </c>
-      <c r="I9" s="36">
-        <v>0</v>
-      </c>
-      <c r="J9" s="36">
-        <v>1</v>
-      </c>
-      <c r="K9" s="40">
-        <v>0</v>
-      </c>
-      <c r="L9" s="36">
-        <v>0</v>
-      </c>
-      <c r="M9" s="36">
+      <c r="H9" s="29">
+        <v>0</v>
+      </c>
+      <c r="I9" s="29">
+        <v>0</v>
+      </c>
+      <c r="J9" s="29">
+        <v>1</v>
+      </c>
+      <c r="K9" s="33">
+        <v>0</v>
+      </c>
+      <c r="L9" s="29">
+        <v>0</v>
+      </c>
+      <c r="M9" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="31">
         <v>1010</v>
       </c>
-      <c r="C10" s="36">
-        <v>1</v>
-      </c>
-      <c r="D10" s="36">
-        <v>1</v>
-      </c>
-      <c r="E10" s="36">
-        <v>0</v>
-      </c>
-      <c r="F10" s="36" t="s">
+      <c r="C10" s="29">
+        <v>1</v>
+      </c>
+      <c r="D10" s="29">
+        <v>1</v>
+      </c>
+      <c r="E10" s="29">
+        <v>0</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="36">
-        <v>1</v>
-      </c>
-      <c r="H10" s="36">
-        <v>0</v>
-      </c>
-      <c r="I10" s="36">
-        <v>0</v>
-      </c>
-      <c r="J10" s="36">
-        <v>1</v>
-      </c>
-      <c r="K10" s="40">
-        <v>0</v>
-      </c>
-      <c r="L10" s="36">
-        <v>0</v>
-      </c>
-      <c r="M10" s="36">
+      <c r="G10" s="29">
+        <v>1</v>
+      </c>
+      <c r="H10" s="29">
+        <v>0</v>
+      </c>
+      <c r="I10" s="29">
+        <v>0</v>
+      </c>
+      <c r="J10" s="29">
+        <v>1</v>
+      </c>
+      <c r="K10" s="33">
+        <v>0</v>
+      </c>
+      <c r="L10" s="29">
+        <v>0</v>
+      </c>
+      <c r="M10" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="31">
         <v>101011</v>
       </c>
-      <c r="C11" s="36">
-        <v>0</v>
-      </c>
-      <c r="D11" s="36">
-        <v>1</v>
-      </c>
-      <c r="E11" s="36">
-        <v>0</v>
-      </c>
-      <c r="F11" s="36" t="s">
+      <c r="C11" s="29">
+        <v>0</v>
+      </c>
+      <c r="D11" s="29">
+        <v>1</v>
+      </c>
+      <c r="E11" s="29">
+        <v>0</v>
+      </c>
+      <c r="F11" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="36">
-        <v>1</v>
-      </c>
-      <c r="H11" s="36">
-        <v>1</v>
-      </c>
-      <c r="I11" s="36">
-        <v>0</v>
-      </c>
-      <c r="J11" s="36">
-        <v>1</v>
-      </c>
-      <c r="K11" s="40">
-        <v>0</v>
-      </c>
-      <c r="L11" s="36">
-        <v>0</v>
-      </c>
-      <c r="M11" s="36">
+      <c r="G11" s="29">
+        <v>1</v>
+      </c>
+      <c r="H11" s="29">
+        <v>1</v>
+      </c>
+      <c r="I11" s="29">
+        <v>0</v>
+      </c>
+      <c r="J11" s="29">
+        <v>1</v>
+      </c>
+      <c r="K11" s="33">
+        <v>0</v>
+      </c>
+      <c r="L11" s="29">
+        <v>0</v>
+      </c>
+      <c r="M11" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="31">
         <v>100011</v>
       </c>
-      <c r="C12" s="36">
-        <v>0</v>
-      </c>
-      <c r="D12" s="36">
-        <v>1</v>
-      </c>
-      <c r="E12" s="36">
-        <v>0</v>
-      </c>
-      <c r="F12" s="36" t="s">
+      <c r="C12" s="29">
+        <v>0</v>
+      </c>
+      <c r="D12" s="29">
+        <v>1</v>
+      </c>
+      <c r="E12" s="29">
+        <v>0</v>
+      </c>
+      <c r="F12" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="36">
-        <v>1</v>
-      </c>
-      <c r="H12" s="36">
-        <v>0</v>
-      </c>
-      <c r="I12" s="36">
-        <v>1</v>
-      </c>
-      <c r="J12" s="36">
-        <v>1</v>
-      </c>
-      <c r="K12" s="40">
-        <v>0</v>
-      </c>
-      <c r="L12" s="36">
-        <v>0</v>
-      </c>
-      <c r="M12" s="36">
+      <c r="G12" s="29">
+        <v>1</v>
+      </c>
+      <c r="H12" s="29">
+        <v>0</v>
+      </c>
+      <c r="I12" s="29">
+        <v>1</v>
+      </c>
+      <c r="J12" s="29">
+        <v>1</v>
+      </c>
+      <c r="K12" s="33">
+        <v>0</v>
+      </c>
+      <c r="L12" s="29">
+        <v>0</v>
+      </c>
+      <c r="M12" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="31">
         <v>100</v>
       </c>
-      <c r="C13" s="36">
-        <v>0</v>
-      </c>
-      <c r="D13" s="36">
-        <v>1</v>
-      </c>
-      <c r="E13" s="36">
-        <v>0</v>
-      </c>
-      <c r="F13" s="36" t="s">
+      <c r="C13" s="29">
+        <v>0</v>
+      </c>
+      <c r="D13" s="29">
+        <v>1</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0</v>
+      </c>
+      <c r="F13" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="36">
-        <v>1</v>
-      </c>
-      <c r="H13" s="36">
-        <v>0</v>
-      </c>
-      <c r="I13" s="36">
-        <v>0</v>
-      </c>
-      <c r="J13" s="36">
-        <v>1</v>
-      </c>
-      <c r="K13" s="40">
-        <v>1</v>
-      </c>
-      <c r="L13" s="36">
-        <v>0</v>
-      </c>
-      <c r="M13" s="36">
+      <c r="G13" s="29">
+        <v>1</v>
+      </c>
+      <c r="H13" s="29">
+        <v>0</v>
+      </c>
+      <c r="I13" s="29">
+        <v>0</v>
+      </c>
+      <c r="J13" s="29">
+        <v>1</v>
+      </c>
+      <c r="K13" s="33">
+        <v>1</v>
+      </c>
+      <c r="L13" s="29">
+        <v>0</v>
+      </c>
+      <c r="M13" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="31">
         <v>101</v>
       </c>
-      <c r="C14" s="36">
-        <v>0</v>
-      </c>
-      <c r="D14" s="36">
-        <v>1</v>
-      </c>
-      <c r="E14" s="36">
-        <v>0</v>
-      </c>
-      <c r="F14" s="36" t="s">
+      <c r="C14" s="29">
+        <v>0</v>
+      </c>
+      <c r="D14" s="29">
+        <v>1</v>
+      </c>
+      <c r="E14" s="29">
+        <v>0</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="36">
-        <v>1</v>
-      </c>
-      <c r="H14" s="36">
-        <v>0</v>
-      </c>
-      <c r="I14" s="36">
-        <v>0</v>
-      </c>
-      <c r="J14" s="36">
-        <v>1</v>
-      </c>
-      <c r="K14" s="40">
-        <v>1</v>
-      </c>
-      <c r="L14" s="36">
-        <v>0</v>
-      </c>
-      <c r="M14" s="36">
+      <c r="G14" s="29">
+        <v>1</v>
+      </c>
+      <c r="H14" s="29">
+        <v>0</v>
+      </c>
+      <c r="I14" s="29">
+        <v>0</v>
+      </c>
+      <c r="J14" s="29">
+        <v>1</v>
+      </c>
+      <c r="K14" s="33">
+        <v>1</v>
+      </c>
+      <c r="L14" s="29">
+        <v>0</v>
+      </c>
+      <c r="M14" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="38">
-        <v>1</v>
-      </c>
-      <c r="C15" s="36">
-        <v>0</v>
-      </c>
-      <c r="D15" s="36">
-        <v>1</v>
-      </c>
-      <c r="E15" s="36">
-        <v>0</v>
-      </c>
-      <c r="F15" s="36" t="s">
+      <c r="B15" s="31">
+        <v>1</v>
+      </c>
+      <c r="C15" s="29">
+        <v>0</v>
+      </c>
+      <c r="D15" s="29">
+        <v>1</v>
+      </c>
+      <c r="E15" s="29">
+        <v>0</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="36">
-        <v>1</v>
-      </c>
-      <c r="H15" s="36">
-        <v>0</v>
-      </c>
-      <c r="I15" s="36">
-        <v>0</v>
-      </c>
-      <c r="J15" s="36">
-        <v>1</v>
-      </c>
-      <c r="K15" s="40">
-        <v>1</v>
-      </c>
-      <c r="L15" s="36">
-        <v>0</v>
-      </c>
-      <c r="M15" s="36">
+      <c r="G15" s="29">
+        <v>1</v>
+      </c>
+      <c r="H15" s="29">
+        <v>0</v>
+      </c>
+      <c r="I15" s="29">
+        <v>0</v>
+      </c>
+      <c r="J15" s="29">
+        <v>1</v>
+      </c>
+      <c r="K15" s="33">
+        <v>1</v>
+      </c>
+      <c r="L15" s="29">
+        <v>0</v>
+      </c>
+      <c r="M15" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B16" s="31">
         <v>10</v>
       </c>
-      <c r="C16" s="36">
-        <v>0</v>
-      </c>
-      <c r="D16" s="36" t="s">
+      <c r="C16" s="29">
+        <v>0</v>
+      </c>
+      <c r="D16" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="H16" s="36">
-        <v>0</v>
-      </c>
-      <c r="I16" s="36">
-        <v>0</v>
-      </c>
-      <c r="J16" s="36">
-        <v>1</v>
-      </c>
-      <c r="K16" s="40">
+      <c r="H16" s="29">
+        <v>0</v>
+      </c>
+      <c r="I16" s="29">
+        <v>0</v>
+      </c>
+      <c r="J16" s="29">
+        <v>1</v>
+      </c>
+      <c r="K16" s="33">
         <v>10</v>
       </c>
-      <c r="L16" s="36">
-        <v>1</v>
-      </c>
-      <c r="M16" s="36">
+      <c r="L16" s="29">
+        <v>1</v>
+      </c>
+      <c r="M16" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17" s="31">
         <v>111111</v>
       </c>
-      <c r="C17" s="36">
-        <v>0</v>
-      </c>
-      <c r="D17" s="36" t="s">
+      <c r="C17" s="29">
+        <v>0</v>
+      </c>
+      <c r="D17" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="36">
-        <v>0</v>
-      </c>
-      <c r="I17" s="36">
-        <v>0</v>
-      </c>
-      <c r="J17" s="36">
-        <v>0</v>
-      </c>
-      <c r="K17" s="40">
-        <v>0</v>
-      </c>
-      <c r="L17" s="36">
-        <v>0</v>
-      </c>
-      <c r="M17" s="36">
+      <c r="H17" s="29">
+        <v>0</v>
+      </c>
+      <c r="I17" s="29">
+        <v>0</v>
+      </c>
+      <c r="J17" s="29">
+        <v>0</v>
+      </c>
+      <c r="K17" s="33">
+        <v>0</v>
+      </c>
+      <c r="L17" s="29">
+        <v>0</v>
+      </c>
+      <c r="M17" s="29">
         <v>0</v>
       </c>
     </row>
@@ -3898,212 +3877,212 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:4">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:4">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="19" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="19" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="19" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="19" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="19" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="19" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="19" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="19" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4124,107 +4103,107 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="29"/>
+    <col min="1" max="1" width="8.88888888888889" style="22"/>
     <col min="2" max="2" width="13.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="17.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="19" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="30">
-        <v>0</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="23">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="19" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="30">
-        <v>1</v>
-      </c>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="23">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="19" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="30">
+      <c r="A4" s="23">
         <v>10</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="30">
+      <c r="A5" s="23">
         <v>11</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="19" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="30">
+      <c r="A6" s="23">
         <v>100</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="19" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="30">
+      <c r="A7" s="23">
         <v>101</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="19" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="30">
+      <c r="A8" s="23">
         <v>110</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="19" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="30">
+      <c r="A9" s="23">
         <v>111</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="19" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4249,62 +4228,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="19" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="27">
-        <v>0</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="20">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="19" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="27">
-        <v>1</v>
-      </c>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="20">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="19" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="27">
+      <c r="A4" s="20">
         <v>10</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="27">
+      <c r="A5" s="20">
         <v>11</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="21" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4319,8 +4298,8 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
@@ -4349,962 +4328,962 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" ht="17.25" spans="1:10">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="16" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:10">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="22" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="18" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:10">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="24" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="18" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:10">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="18" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:10">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="18" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:10">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="24" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="18" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:10">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="18" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:10">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="24" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="18" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:10">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="24" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="18" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:10">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="18" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:10">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="18" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:10">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="24" t="s">
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="18" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:10">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="24" t="s">
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="18" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="1:10">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="24" t="s">
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="18" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="1:10">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="24" t="s">
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="18" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="1:10">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="24" t="s">
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="18" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="1:10">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="24" t="s">
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="J18" s="25" t="s">
+      <c r="J18" s="18" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="1:10">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="J19" s="25" t="s">
+      <c r="J19" s="18" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="20" ht="17.25" spans="1:10">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="I20" s="24" t="s">
+      <c r="I20" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="18" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:10">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="I21" s="24" t="s">
+      <c r="I21" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="J21" s="18" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="22" ht="17.25" spans="1:10">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="24" t="s">
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="J22" s="18" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="23" ht="17.25" spans="1:10">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="24" t="s">
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="J23" s="25" t="s">
+      <c r="J23" s="18" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="24" ht="17.25" spans="1:10">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="24" t="s">
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="J24" s="25" t="s">
+      <c r="J24" s="18" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="1:10">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="24" t="s">
+      <c r="G25" s="10"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J25" s="25" t="s">
+      <c r="J25" s="18" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="26" ht="17.25" spans="1:10">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="24" t="s">
+      <c r="G26" s="10"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="J26" s="25" t="s">
+      <c r="J26" s="18" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="1:10">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="24" t="s">
+      <c r="G27" s="10"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="J27" s="25" t="s">
+      <c r="J27" s="18" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="28" ht="17.25" spans="1:10">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:10">
+      <c r="A28" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="24" t="s">
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="J28" s="25" t="s">
+      <c r="J28" s="18" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="29" ht="17.25" spans="1:10">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:10">
+      <c r="A29" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="24" t="s">
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="J29" s="25" t="s">
+      <c r="J29" s="18" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="30" ht="17.25" spans="1:10">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="24" t="s">
+      <c r="G30" s="10"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="J30" s="25" t="s">
+      <c r="J30" s="18" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="1:10">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="24" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="J31" s="25" t="s">
+      <c r="J31" s="18" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="32" ht="17.25" spans="1:10">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:10">
+      <c r="A32" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="24" t="s">
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="J32" s="25" t="s">
+      <c r="J32" s="18" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="1:10">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="24" t="s">
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="J33" s="25" t="s">
+      <c r="J33" s="18" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="1:10">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="24" t="s">
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="J34" s="25" t="s">
+      <c r="J34" s="18" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="35" ht="17.25" spans="1:10">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="24" t="s">
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="J35" s="25" t="s">
+      <c r="J35" s="18" t="s">
         <v>263</v>
       </c>
     </row>
